--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -21,11 +21,11 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$287</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$N$1:$N$14</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="596">
   <si>
     <t>alias</t>
   </si>
@@ -452,6 +452,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -551,6 +563,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -668,6 +698,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -675,6 +708,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2320,10 +2356,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2364,10 +2400,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2430,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2414,7 +2450,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2431,7 +2467,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2448,7 +2484,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2465,7 +2501,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2482,7 +2518,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2499,7 +2535,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2516,7 +2552,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2533,7 +2569,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2550,7 +2586,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2564,7 +2600,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2578,7 +2614,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2592,7 +2628,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2606,7 +2642,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2616,8 +2652,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2627,8 +2666,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2638,8 +2680,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2649,8 +2694,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2661,7 +2709,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2672,7 +2720,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2683,7 +2731,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2694,7 +2742,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2705,7 +2753,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2716,7 +2764,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2727,7 +2775,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2738,7 +2786,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2749,7 +2797,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2760,7 +2808,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2771,7 +2819,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2782,7 +2830,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2793,7 +2841,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2804,7 +2852,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2812,7 +2860,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2820,7 +2868,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2828,7 +2876,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2836,7 +2884,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2844,7 +2892,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2852,7 +2900,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2860,7 +2908,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2868,7 +2916,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -2876,7 +2924,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -2884,176 +2932,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3078,27 +3166,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3121,122 +3209,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3263,144 +3351,144 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -3429,1485 +3517,1485 @@
   <sheetData>
     <row r="1" spans="9:14">
       <c r="I1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="L1" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="N1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="9:14">
       <c r="I2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L2" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="N2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="9:14">
       <c r="I3" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="N3" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="9:14">
       <c r="I4" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="N4" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="9:14">
       <c r="I5" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="N5" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="9:14">
       <c r="I6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="N6" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="9:14">
       <c r="I7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="9:14">
       <c r="I8" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="N8" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="9:14">
       <c r="I9" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N9" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="9:14">
       <c r="I10" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N10" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="9:14">
       <c r="I11" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="N11" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="9:14">
       <c r="I12" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="N12" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="9:14">
       <c r="I13" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="N13" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="9:14">
       <c r="I14" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="N14" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="9:14">
       <c r="I15" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="9:14">
       <c r="I16" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="9:9">
       <c r="I17" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="9:9">
       <c r="I19" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="9:9">
       <c r="I20" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="9:9">
       <c r="I21" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="9:9">
       <c r="I23" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="9:9">
       <c r="I24" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="9:9">
       <c r="I25" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="9:9">
       <c r="I26" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="9:9">
       <c r="I27" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="9:9">
       <c r="I28" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="9:9">
       <c r="I29" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="9:9">
       <c r="I30" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="9:9">
       <c r="I31" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="9:9">
       <c r="I32" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="9:9">
       <c r="I39" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="9:9">
       <c r="I40" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="9:9">
       <c r="I41" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="9:9">
       <c r="I47" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="9:9">
       <c r="I48" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="9:9">
       <c r="I49" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="9:9">
       <c r="I50" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="9:9">
       <c r="I51" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="9:9">
       <c r="I52" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="9:9">
       <c r="I53" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="9:9">
       <c r="I54" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="9:9">
       <c r="I55" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="9:9">
       <c r="I56" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="9:9">
       <c r="I57" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="9:9">
       <c r="I58" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="9:9">
       <c r="I59" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="9:9">
       <c r="I60" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="9:9">
       <c r="I61" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="9:9">
       <c r="I62" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="9:9">
       <c r="I63" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="9:9">
       <c r="I64" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="9:9">
       <c r="I65" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="9:9">
       <c r="I66" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="9:9">
       <c r="I67" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="9:9">
       <c r="I68" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="9:9">
       <c r="I69" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="9:9">
       <c r="I70" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="9:9">
       <c r="I71" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="9:9">
       <c r="I72" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="9:9">
       <c r="I73" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="9:9">
       <c r="I74" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="9:9">
       <c r="I75" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="9:9">
       <c r="I76" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="9:9">
       <c r="I77" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="9:9">
       <c r="I78" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="9:9">
       <c r="I79" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="9:9">
       <c r="I80" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="9:9">
       <c r="I81" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="9:9">
       <c r="I82" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="9:9">
       <c r="I83" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="9:9">
       <c r="I84" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="9:9">
       <c r="I85" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="9:9">
       <c r="I86" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="9:9">
       <c r="I87" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="9:9">
       <c r="I88" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="89" spans="9:9">
       <c r="I89" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="9:9">
       <c r="I90" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="91" spans="9:9">
       <c r="I91" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="9:9">
       <c r="I92" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="9:9">
       <c r="I93" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="9:9">
       <c r="I94" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="9:9">
       <c r="I95" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="9:9">
       <c r="I96" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="9:9">
       <c r="I97" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="9:9">
       <c r="I98" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="9:9">
       <c r="I99" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="9:9">
       <c r="I100" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="9:9">
       <c r="I101" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="9:9">
       <c r="I102" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="9:9">
       <c r="I103" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="9:9">
       <c r="I104" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="9:9">
       <c r="I105" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="9:9">
       <c r="I106" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="9:9">
       <c r="I107" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="9:9">
       <c r="I108" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="9:9">
       <c r="I109" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="9:9">
       <c r="I110" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="9:9">
       <c r="I111" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="112" spans="9:9">
       <c r="I112" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="113" spans="9:9">
       <c r="I113" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="114" spans="9:9">
       <c r="I114" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="115" spans="9:9">
       <c r="I115" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="9:9">
       <c r="I116" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="117" spans="9:9">
       <c r="I117" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="118" spans="9:9">
       <c r="I118" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="119" spans="9:9">
       <c r="I119" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="120" spans="9:9">
       <c r="I120" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="121" spans="9:9">
       <c r="I121" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="122" spans="9:9">
       <c r="I122" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="123" spans="9:9">
       <c r="I123" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="124" spans="9:9">
       <c r="I124" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="125" spans="9:9">
       <c r="I125" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="9:9">
       <c r="I126" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="127" spans="9:9">
       <c r="I127" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128" spans="9:9">
       <c r="I128" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="129" spans="9:9">
       <c r="I129" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="130" spans="9:9">
       <c r="I130" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="131" spans="9:9">
       <c r="I131" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="132" spans="9:9">
       <c r="I132" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" spans="9:9">
       <c r="I133" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="134" spans="9:9">
       <c r="I134" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="9:9">
       <c r="I135" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="136" spans="9:9">
       <c r="I136" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="137" spans="9:9">
       <c r="I137" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="138" spans="9:9">
       <c r="I138" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="139" spans="9:9">
       <c r="I139" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="9:9">
       <c r="I140" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="9:9">
       <c r="I141" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="142" spans="9:9">
       <c r="I142" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="143" spans="9:9">
       <c r="I143" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="144" spans="9:9">
       <c r="I144" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="145" spans="9:9">
       <c r="I145" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="146" spans="9:9">
       <c r="I146" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="147" spans="9:9">
       <c r="I147" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="148" spans="9:9">
       <c r="I148" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="149" spans="9:9">
       <c r="I149" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="150" spans="9:9">
       <c r="I150" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="151" spans="9:9">
       <c r="I151" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="152" spans="9:9">
       <c r="I152" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="153" spans="9:9">
       <c r="I153" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="154" spans="9:9">
       <c r="I154" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="155" spans="9:9">
       <c r="I155" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="156" spans="9:9">
       <c r="I156" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="157" spans="9:9">
       <c r="I157" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="158" spans="9:9">
       <c r="I158" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="159" spans="9:9">
       <c r="I159" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="160" spans="9:9">
       <c r="I160" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="161" spans="9:9">
       <c r="I161" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="162" spans="9:9">
       <c r="I162" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="163" spans="9:9">
       <c r="I163" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="164" spans="9:9">
       <c r="I164" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="165" spans="9:9">
       <c r="I165" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="166" spans="9:9">
       <c r="I166" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="167" spans="9:9">
       <c r="I167" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="168" spans="9:9">
       <c r="I168" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="169" spans="9:9">
       <c r="I169" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170" spans="9:9">
       <c r="I170" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="9:9">
       <c r="I171" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="172" spans="9:9">
       <c r="I172" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="173" spans="9:9">
       <c r="I173" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="9:9">
       <c r="I174" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="175" spans="9:9">
       <c r="I175" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="176" spans="9:9">
       <c r="I176" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="177" spans="9:9">
       <c r="I177" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="178" spans="9:9">
       <c r="I178" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="179" spans="9:9">
       <c r="I179" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="180" spans="9:9">
       <c r="I180" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="181" spans="9:9">
       <c r="I181" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182" spans="9:9">
       <c r="I182" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="183" spans="9:9">
       <c r="I183" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="184" spans="9:9">
       <c r="I184" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="185" spans="9:9">
       <c r="I185" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="186" spans="9:9">
       <c r="I186" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="187" spans="9:9">
       <c r="I187" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="188" spans="9:9">
       <c r="I188" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="189" spans="9:9">
       <c r="I189" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="190" spans="9:9">
       <c r="I190" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="191" spans="9:9">
       <c r="I191" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="192" spans="9:9">
       <c r="I192" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="193" spans="9:9">
       <c r="I193" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="194" spans="9:9">
       <c r="I194" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="195" spans="9:9">
       <c r="I195" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="196" spans="9:9">
       <c r="I196" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="197" spans="9:9">
       <c r="I197" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="198" spans="9:9">
       <c r="I198" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="199" spans="9:9">
       <c r="I199" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="200" spans="9:9">
       <c r="I200" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="201" spans="9:9">
       <c r="I201" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="202" spans="9:9">
       <c r="I202" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="203" spans="9:9">
       <c r="I203" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="204" spans="9:9">
       <c r="I204" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="205" spans="9:9">
       <c r="I205" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="206" spans="9:9">
       <c r="I206" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="207" spans="9:9">
       <c r="I207" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="208" spans="9:9">
       <c r="I208" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="209" spans="9:9">
       <c r="I209" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="210" spans="9:9">
       <c r="I210" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="211" spans="9:9">
       <c r="I211" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="212" spans="9:9">
       <c r="I212" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="213" spans="9:9">
       <c r="I213" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="214" spans="9:9">
       <c r="I214" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="215" spans="9:9">
       <c r="I215" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="216" spans="9:9">
       <c r="I216" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="217" spans="9:9">
       <c r="I217" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="218" spans="9:9">
       <c r="I218" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="219" spans="9:9">
       <c r="I219" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="220" spans="9:9">
       <c r="I220" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="221" spans="9:9">
       <c r="I221" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="222" spans="9:9">
       <c r="I222" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="223" spans="9:9">
       <c r="I223" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="224" spans="9:9">
       <c r="I224" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="225" spans="9:9">
       <c r="I225" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="226" spans="9:9">
       <c r="I226" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="227" spans="9:9">
       <c r="I227" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="228" spans="9:9">
       <c r="I228" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="229" spans="9:9">
       <c r="I229" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="230" spans="9:9">
       <c r="I230" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="231" spans="9:9">
       <c r="I231" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="232" spans="9:9">
       <c r="I232" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="233" spans="9:9">
       <c r="I233" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="234" spans="9:9">
       <c r="I234" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="235" spans="9:9">
       <c r="I235" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="236" spans="9:9">
       <c r="I236" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="237" spans="9:9">
       <c r="I237" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="238" spans="9:9">
       <c r="I238" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="239" spans="9:9">
       <c r="I239" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="240" spans="9:9">
       <c r="I240" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="241" spans="9:9">
       <c r="I241" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="242" spans="9:9">
       <c r="I242" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="243" spans="9:9">
       <c r="I243" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="244" spans="9:9">
       <c r="I244" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="245" spans="9:9">
       <c r="I245" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="246" spans="9:9">
       <c r="I246" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="247" spans="9:9">
       <c r="I247" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="248" spans="9:9">
       <c r="I248" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="249" spans="9:9">
       <c r="I249" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="250" spans="9:9">
       <c r="I250" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="251" spans="9:9">
       <c r="I251" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="252" spans="9:9">
       <c r="I252" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="253" spans="9:9">
       <c r="I253" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="254" spans="9:9">
       <c r="I254" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="255" spans="9:9">
       <c r="I255" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="256" spans="9:9">
       <c r="I256" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="257" spans="9:9">
       <c r="I257" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="258" spans="9:9">
       <c r="I258" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="259" spans="9:9">
       <c r="I259" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="260" spans="9:9">
       <c r="I260" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="261" spans="9:9">
       <c r="I261" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="262" spans="9:9">
       <c r="I262" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="263" spans="9:9">
       <c r="I263" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="264" spans="9:9">
       <c r="I264" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="265" spans="9:9">
       <c r="I265" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="266" spans="9:9">
       <c r="I266" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="267" spans="9:9">
       <c r="I267" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="268" spans="9:9">
       <c r="I268" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="269" spans="9:9">
       <c r="I269" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="270" spans="9:9">
       <c r="I270" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="271" spans="9:9">
       <c r="I271" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="272" spans="9:9">
       <c r="I272" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="273" spans="9:9">
       <c r="I273" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="274" spans="9:9">
       <c r="I274" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="275" spans="9:9">
       <c r="I275" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="276" spans="9:9">
       <c r="I276" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="277" spans="9:9">
       <c r="I277" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="278" spans="9:9">
       <c r="I278" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="279" spans="9:9">
       <c r="I279" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="280" spans="9:9">
       <c r="I280" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="281" spans="9:9">
       <c r="I281" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="282" spans="9:9">
       <c r="I282" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="283" spans="9:9">
       <c r="I283" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="284" spans="9:9">
       <c r="I284" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="285" spans="9:9">
       <c r="I285" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="286" spans="9:9">
       <c r="I286" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="287" spans="9:9">
       <c r="I287" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -101,7 +101,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalsample">'cv_sample'!$L$1:$L$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$288</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$N$1:$N$14</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="597">
   <si>
     <t>alias</t>
   </si>
@@ -1049,6 +1049,9 @@
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -1718,7 +1721,7 @@
     <t>geographic location (country and/or sea)</t>
   </si>
   <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -3369,52 +3372,52 @@
         <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
@@ -3443,52 +3446,52 @@
         <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -3509,7 +3512,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:N287"/>
+  <dimension ref="I1:N288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3520,10 +3523,10 @@
         <v>273</v>
       </c>
       <c r="L1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="9:14">
@@ -3531,10 +3534,10 @@
         <v>274</v>
       </c>
       <c r="L2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="9:14">
@@ -3542,7 +3545,7 @@
         <v>275</v>
       </c>
       <c r="N3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="9:14">
@@ -3550,7 +3553,7 @@
         <v>276</v>
       </c>
       <c r="N4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="9:14">
@@ -3558,7 +3561,7 @@
         <v>277</v>
       </c>
       <c r="N5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="9:14">
@@ -3566,7 +3569,7 @@
         <v>278</v>
       </c>
       <c r="N6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="9:14">
@@ -3574,7 +3577,7 @@
         <v>279</v>
       </c>
       <c r="N7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="9:14">
@@ -3582,7 +3585,7 @@
         <v>280</v>
       </c>
       <c r="N8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="9:14">
@@ -3590,7 +3593,7 @@
         <v>281</v>
       </c>
       <c r="N9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="9:14">
@@ -3598,7 +3601,7 @@
         <v>282</v>
       </c>
       <c r="N10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="9:14">
@@ -3606,7 +3609,7 @@
         <v>283</v>
       </c>
       <c r="N11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="9:14">
@@ -3614,7 +3617,7 @@
         <v>284</v>
       </c>
       <c r="N12" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="9:14">
@@ -3622,7 +3625,7 @@
         <v>285</v>
       </c>
       <c r="N13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="9:14">
@@ -3630,7 +3633,7 @@
         <v>286</v>
       </c>
       <c r="N14" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="9:14">
@@ -4996,6 +4999,11 @@
     <row r="287" spans="9:9">
       <c r="I287" t="s">
         <v>559</v>
+      </c>
+    </row>
+    <row r="288" spans="9:9">
+      <c r="I288" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -1046,10 +1046,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="598">
   <si>
     <t>alias</t>
   </si>
@@ -813,6 +813,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3354,144 +3357,144 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -3520,1490 +3523,1490 @@
   <sheetData>
     <row r="1" spans="9:14">
       <c r="I1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="9:14">
       <c r="I2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="9:14">
       <c r="I3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="9:14">
       <c r="I4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="9:14">
       <c r="I5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="9:14">
       <c r="I6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="9:14">
       <c r="I7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="9:14">
       <c r="I8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="9:14">
       <c r="I9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="9:14">
       <c r="I10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="9:14">
       <c r="I11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="9:14">
       <c r="I12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="9:14">
       <c r="I13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="9:14">
       <c r="I14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="9:14">
       <c r="I15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="9:14">
       <c r="I16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="9:9">
       <c r="I17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="9:9">
       <c r="I19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="9:9">
       <c r="I20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="9:9">
       <c r="I21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="9:9">
       <c r="I23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="9:9">
       <c r="I24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="9:9">
       <c r="I25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="9:9">
       <c r="I26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="9:9">
       <c r="I27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="9:9">
       <c r="I28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="9:9">
       <c r="I29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="9:9">
       <c r="I30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="9:9">
       <c r="I31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="9:9">
       <c r="I32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="9:9">
       <c r="I39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="9:9">
       <c r="I40" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="9:9">
       <c r="I41" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="9:9">
       <c r="I47" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="9:9">
       <c r="I48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="9:9">
       <c r="I49" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="9:9">
       <c r="I50" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="9:9">
       <c r="I51" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="9:9">
       <c r="I52" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="9:9">
       <c r="I53" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="9:9">
       <c r="I54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="9:9">
       <c r="I55" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="9:9">
       <c r="I56" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="9:9">
       <c r="I57" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="9:9">
       <c r="I58" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="9:9">
       <c r="I59" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="9:9">
       <c r="I60" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="9:9">
       <c r="I61" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="9:9">
       <c r="I62" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="9:9">
       <c r="I63" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="9:9">
       <c r="I64" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="9:9">
       <c r="I65" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="9:9">
       <c r="I66" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="9:9">
       <c r="I67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="9:9">
       <c r="I68" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="9:9">
       <c r="I69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="9:9">
       <c r="I70" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="9:9">
       <c r="I71" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="9:9">
       <c r="I72" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="9:9">
       <c r="I73" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="9:9">
       <c r="I74" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="9:9">
       <c r="I75" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="9:9">
       <c r="I76" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="9:9">
       <c r="I77" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="9:9">
       <c r="I78" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="9:9">
       <c r="I79" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="9:9">
       <c r="I80" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="9:9">
       <c r="I81" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="9:9">
       <c r="I82" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="9:9">
       <c r="I83" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="9:9">
       <c r="I84" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="9:9">
       <c r="I85" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="9:9">
       <c r="I86" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="9:9">
       <c r="I87" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="9:9">
       <c r="I88" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="9:9">
       <c r="I89" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="9:9">
       <c r="I90" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="9:9">
       <c r="I91" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="9:9">
       <c r="I92" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="9:9">
       <c r="I93" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="9:9">
       <c r="I94" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="9:9">
       <c r="I95" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="9:9">
       <c r="I96" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="97" spans="9:9">
       <c r="I97" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="9:9">
       <c r="I98" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" spans="9:9">
       <c r="I99" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="9:9">
       <c r="I100" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="9:9">
       <c r="I101" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="9:9">
       <c r="I102" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="9:9">
       <c r="I103" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="9:9">
       <c r="I104" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="9:9">
       <c r="I105" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="9:9">
       <c r="I106" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" spans="9:9">
       <c r="I107" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="9:9">
       <c r="I108" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="9:9">
       <c r="I109" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="9:9">
       <c r="I110" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="111" spans="9:9">
       <c r="I111" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="9:9">
       <c r="I112" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="113" spans="9:9">
       <c r="I113" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114" spans="9:9">
       <c r="I114" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115" spans="9:9">
       <c r="I115" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="116" spans="9:9">
       <c r="I116" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="117" spans="9:9">
       <c r="I117" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="118" spans="9:9">
       <c r="I118" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="119" spans="9:9">
       <c r="I119" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="120" spans="9:9">
       <c r="I120" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="121" spans="9:9">
       <c r="I121" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="122" spans="9:9">
       <c r="I122" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="123" spans="9:9">
       <c r="I123" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="124" spans="9:9">
       <c r="I124" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="9:9">
       <c r="I125" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="126" spans="9:9">
       <c r="I126" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127" spans="9:9">
       <c r="I127" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="9:9">
       <c r="I128" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" spans="9:9">
       <c r="I129" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="9:9">
       <c r="I130" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="131" spans="9:9">
       <c r="I131" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="132" spans="9:9">
       <c r="I132" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="133" spans="9:9">
       <c r="I133" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="134" spans="9:9">
       <c r="I134" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="135" spans="9:9">
       <c r="I135" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="136" spans="9:9">
       <c r="I136" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="137" spans="9:9">
       <c r="I137" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="138" spans="9:9">
       <c r="I138" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="139" spans="9:9">
       <c r="I139" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="9:9">
       <c r="I140" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="141" spans="9:9">
       <c r="I141" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142" spans="9:9">
       <c r="I142" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="143" spans="9:9">
       <c r="I143" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="144" spans="9:9">
       <c r="I144" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145" spans="9:9">
       <c r="I145" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="146" spans="9:9">
       <c r="I146" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="147" spans="9:9">
       <c r="I147" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="148" spans="9:9">
       <c r="I148" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="149" spans="9:9">
       <c r="I149" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="150" spans="9:9">
       <c r="I150" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="151" spans="9:9">
       <c r="I151" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="152" spans="9:9">
       <c r="I152" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="153" spans="9:9">
       <c r="I153" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154" spans="9:9">
       <c r="I154" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="155" spans="9:9">
       <c r="I155" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="9:9">
       <c r="I156" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="157" spans="9:9">
       <c r="I157" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="158" spans="9:9">
       <c r="I158" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="159" spans="9:9">
       <c r="I159" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="160" spans="9:9">
       <c r="I160" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="161" spans="9:9">
       <c r="I161" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="162" spans="9:9">
       <c r="I162" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="9:9">
       <c r="I163" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="164" spans="9:9">
       <c r="I164" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165" spans="9:9">
       <c r="I165" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="166" spans="9:9">
       <c r="I166" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="167" spans="9:9">
       <c r="I167" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="168" spans="9:9">
       <c r="I168" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="9:9">
       <c r="I169" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="9:9">
       <c r="I170" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="171" spans="9:9">
       <c r="I171" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="172" spans="9:9">
       <c r="I172" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" spans="9:9">
       <c r="I173" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="174" spans="9:9">
       <c r="I174" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="175" spans="9:9">
       <c r="I175" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" spans="9:9">
       <c r="I176" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="177" spans="9:9">
       <c r="I177" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="178" spans="9:9">
       <c r="I178" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="179" spans="9:9">
       <c r="I179" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="180" spans="9:9">
       <c r="I180" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="181" spans="9:9">
       <c r="I181" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="182" spans="9:9">
       <c r="I182" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="183" spans="9:9">
       <c r="I183" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="184" spans="9:9">
       <c r="I184" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="185" spans="9:9">
       <c r="I185" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="186" spans="9:9">
       <c r="I186" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="187" spans="9:9">
       <c r="I187" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="9:9">
       <c r="I188" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="189" spans="9:9">
       <c r="I189" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="190" spans="9:9">
       <c r="I190" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="191" spans="9:9">
       <c r="I191" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="192" spans="9:9">
       <c r="I192" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="193" spans="9:9">
       <c r="I193" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="194" spans="9:9">
       <c r="I194" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195" spans="9:9">
       <c r="I195" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="196" spans="9:9">
       <c r="I196" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="197" spans="9:9">
       <c r="I197" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="198" spans="9:9">
       <c r="I198" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="199" spans="9:9">
       <c r="I199" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="200" spans="9:9">
       <c r="I200" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="201" spans="9:9">
       <c r="I201" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="202" spans="9:9">
       <c r="I202" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="203" spans="9:9">
       <c r="I203" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="204" spans="9:9">
       <c r="I204" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205" spans="9:9">
       <c r="I205" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="206" spans="9:9">
       <c r="I206" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="207" spans="9:9">
       <c r="I207" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="208" spans="9:9">
       <c r="I208" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="209" spans="9:9">
       <c r="I209" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="210" spans="9:9">
       <c r="I210" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="211" spans="9:9">
       <c r="I211" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="212" spans="9:9">
       <c r="I212" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="213" spans="9:9">
       <c r="I213" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="214" spans="9:9">
       <c r="I214" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="215" spans="9:9">
       <c r="I215" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="216" spans="9:9">
       <c r="I216" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="217" spans="9:9">
       <c r="I217" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="9:9">
       <c r="I218" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="219" spans="9:9">
       <c r="I219" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="220" spans="9:9">
       <c r="I220" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="221" spans="9:9">
       <c r="I221" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="222" spans="9:9">
       <c r="I222" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="223" spans="9:9">
       <c r="I223" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="224" spans="9:9">
       <c r="I224" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="225" spans="9:9">
       <c r="I225" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="226" spans="9:9">
       <c r="I226" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="9:9">
       <c r="I227" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="228" spans="9:9">
       <c r="I228" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="229" spans="9:9">
       <c r="I229" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="9:9">
       <c r="I230" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="231" spans="9:9">
       <c r="I231" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="232" spans="9:9">
       <c r="I232" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="233" spans="9:9">
       <c r="I233" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="234" spans="9:9">
       <c r="I234" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="235" spans="9:9">
       <c r="I235" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="236" spans="9:9">
       <c r="I236" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="237" spans="9:9">
       <c r="I237" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="238" spans="9:9">
       <c r="I238" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239" spans="9:9">
       <c r="I239" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="240" spans="9:9">
       <c r="I240" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="241" spans="9:9">
       <c r="I241" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="242" spans="9:9">
       <c r="I242" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="243" spans="9:9">
       <c r="I243" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="244" spans="9:9">
       <c r="I244" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="245" spans="9:9">
       <c r="I245" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="246" spans="9:9">
       <c r="I246" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="247" spans="9:9">
       <c r="I247" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="248" spans="9:9">
       <c r="I248" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="249" spans="9:9">
       <c r="I249" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="250" spans="9:9">
       <c r="I250" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="251" spans="9:9">
       <c r="I251" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="252" spans="9:9">
       <c r="I252" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="253" spans="9:9">
       <c r="I253" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="254" spans="9:9">
       <c r="I254" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="255" spans="9:9">
       <c r="I255" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="256" spans="9:9">
       <c r="I256" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="257" spans="9:9">
       <c r="I257" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="258" spans="9:9">
       <c r="I258" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="259" spans="9:9">
       <c r="I259" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="260" spans="9:9">
       <c r="I260" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="261" spans="9:9">
       <c r="I261" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="262" spans="9:9">
       <c r="I262" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="263" spans="9:9">
       <c r="I263" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="264" spans="9:9">
       <c r="I264" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="265" spans="9:9">
       <c r="I265" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="266" spans="9:9">
       <c r="I266" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="267" spans="9:9">
       <c r="I267" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="268" spans="9:9">
       <c r="I268" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="269" spans="9:9">
       <c r="I269" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="270" spans="9:9">
       <c r="I270" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="271" spans="9:9">
       <c r="I271" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="272" spans="9:9">
       <c r="I272" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="273" spans="9:9">
       <c r="I273" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="274" spans="9:9">
       <c r="I274" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="275" spans="9:9">
       <c r="I275" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="276" spans="9:9">
       <c r="I276" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="277" spans="9:9">
       <c r="I277" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="278" spans="9:9">
       <c r="I278" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="279" spans="9:9">
       <c r="I279" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="280" spans="9:9">
       <c r="I280" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="281" spans="9:9">
       <c r="I281" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="282" spans="9:9">
       <c r="I282" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="283" spans="9:9">
       <c r="I283" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="284" spans="9:9">
       <c r="I284" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="285" spans="9:9">
       <c r="I285" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="286" spans="9:9">
       <c r="I286" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="287" spans="9:9">
       <c r="I287" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="288" spans="9:9">
       <c r="I288" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -113,7 +113,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -131,7 +131,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -17,9 +17,9 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="environmentalsample">'cv_sample'!$L$1:$L$2</definedName>
+    <definedName name="environmentalsample">'cv_sample'!$K$1:$K$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$N$1:$N$14</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="599">
   <si>
     <t>alias</t>
   </si>
@@ -857,6 +857,36 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>identified_by</t>
+  </si>
+  <si>
+    <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>environmental_sample</t>
+  </si>
+  <si>
+    <t>(Optional) Identifies sequences derived by direct molecular isolation from a bulk environmental dna sample (by pcr with or without subsequent cloning of the product, dgge, or other anonymous methods) with no reliable identification of the source organism</t>
+  </si>
+  <si>
+    <t>mating_type</t>
+  </si>
+  <si>
+    <t>(Optional) Mating type of the organism from which the sequence was obtained; mating type is used for prokaryotes, and for eukaryotes that undergo meiosis without sexually dimorphic gametes</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1685,6 +1715,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1725,36 +1758,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>identified_by</t>
-  </si>
-  <si>
-    <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>environmental_sample</t>
-  </si>
-  <si>
-    <t>(Optional) Identifies sequences derived by direct molecular isolation from a bulk environmental dna sample (by pcr with or without subsequent cloning of the product, dgge, or other anonymous methods) with no reliable identification of the source organism</t>
-  </si>
-  <si>
-    <t>mating_type</t>
-  </si>
-  <si>
-    <t>(Optional) Mating type of the organism from which the sequence was obtained; mating type is used for prokaryotes, and for eukaryotes that undergo meiosis without sexually dimorphic gametes</t>
   </si>
   <si>
     <t>diseased</t>
@@ -3375,52 +3378,52 @@
         <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>562</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>564</v>
+        <v>276</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>566</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>570</v>
+        <v>282</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
@@ -3449,61 +3452,61 @@
         <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>563</v>
+        <v>275</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>565</v>
+        <v>277</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>567</v>
+        <v>281</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>571</v>
+        <v>283</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
+      <formula1>environmentalsample</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
       <formula1>geographiclocationcountryandorsea</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L101">
-      <formula1>environmentalsample</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
       <formula1>hosthealthstate</formula1>
@@ -3515,1498 +3518,1503 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:N288"/>
+  <dimension ref="K1:N289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="9:14">
-      <c r="I1" t="s">
-        <v>274</v>
-      </c>
-      <c r="L1" t="s">
+    <row r="1" spans="11:14">
+      <c r="K1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M1" t="s">
+        <v>284</v>
+      </c>
+      <c r="N1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="11:14">
+      <c r="K2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="11:14">
+      <c r="M3" t="s">
+        <v>286</v>
+      </c>
+      <c r="N3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="11:14">
+      <c r="M4" t="s">
+        <v>287</v>
+      </c>
+      <c r="N4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="11:14">
+      <c r="M5" t="s">
+        <v>288</v>
+      </c>
+      <c r="N5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="11:14">
+      <c r="M6" t="s">
+        <v>289</v>
+      </c>
+      <c r="N6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="11:14">
+      <c r="M7" t="s">
+        <v>290</v>
+      </c>
+      <c r="N7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="11:14">
+      <c r="M8" t="s">
+        <v>291</v>
+      </c>
+      <c r="N8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="11:14">
+      <c r="M9" t="s">
+        <v>292</v>
+      </c>
+      <c r="N9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="11:14">
+      <c r="M10" t="s">
+        <v>293</v>
+      </c>
+      <c r="N10" t="s">
         <v>568</v>
       </c>
-      <c r="N1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="2" spans="9:14">
-      <c r="I2" t="s">
-        <v>275</v>
-      </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="11" spans="11:14">
+      <c r="M11" t="s">
+        <v>294</v>
+      </c>
+      <c r="N11" t="s">
         <v>569</v>
       </c>
-      <c r="N2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="3" spans="9:14">
-      <c r="I3" t="s">
-        <v>276</v>
-      </c>
-      <c r="N3" t="s">
+    </row>
+    <row r="12" spans="11:14">
+      <c r="M12" t="s">
+        <v>295</v>
+      </c>
+      <c r="N12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="11:14">
+      <c r="M13" t="s">
+        <v>296</v>
+      </c>
+      <c r="N13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="14" spans="11:14">
+      <c r="M14" t="s">
+        <v>297</v>
+      </c>
+      <c r="N14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="11:14">
+      <c r="M15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="11:14">
+      <c r="M16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13">
+      <c r="M17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13">
+      <c r="M18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13">
+      <c r="M19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="13:13">
+      <c r="M20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13">
+      <c r="M21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13">
+      <c r="M22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13">
+      <c r="M23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13">
+      <c r="M24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="13:13">
+      <c r="M25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="13:13">
+      <c r="M26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="13:13">
+      <c r="M27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="13:13">
+      <c r="M28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="13:13">
+      <c r="M29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="13:13">
+      <c r="M30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="13:13">
+      <c r="M31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="13:13">
+      <c r="M32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13">
+      <c r="M33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13">
+      <c r="M34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="13:13">
+      <c r="M35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="13:13">
+      <c r="M36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="13:13">
+      <c r="M37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="13:13">
+      <c r="M38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="13:13">
+      <c r="M39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="13:13">
+      <c r="M40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="13:13">
+      <c r="M41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="13:13">
+      <c r="M42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="13:13">
+      <c r="M43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="13:13">
+      <c r="M44" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="13:13">
+      <c r="M45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13">
+      <c r="M46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="13:13">
+      <c r="M47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="13:13">
+      <c r="M48" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="13:13">
+      <c r="M49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="13:13">
+      <c r="M50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="13:13">
+      <c r="M51" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="13:13">
+      <c r="M52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="13:13">
+      <c r="M53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="13:13">
+      <c r="M54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="13:13">
+      <c r="M55" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="13:13">
+      <c r="M56" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="13:13">
+      <c r="M57" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="13:13">
+      <c r="M58" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="13:13">
+      <c r="M59" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="13:13">
+      <c r="M60" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="13:13">
+      <c r="M61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="13:13">
+      <c r="M62" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="13:13">
+      <c r="M63" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="13:13">
+      <c r="M64" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="13:13">
+      <c r="M65" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="13:13">
+      <c r="M66" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="13:13">
+      <c r="M67" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="13:13">
+      <c r="M68" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="13:13">
+      <c r="M69" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="13:13">
+      <c r="M70" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="13:13">
+      <c r="M71" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="13:13">
+      <c r="M72" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="13:13">
+      <c r="M73" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="13:13">
+      <c r="M74" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="13:13">
+      <c r="M75" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="13:13">
+      <c r="M76" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="13:13">
+      <c r="M77" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="13:13">
+      <c r="M78" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="13:13">
+      <c r="M79" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="13:13">
+      <c r="M80" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="81" spans="13:13">
+      <c r="M81" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="82" spans="13:13">
+      <c r="M82" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="13:13">
+      <c r="M83" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="84" spans="13:13">
+      <c r="M84" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" spans="13:13">
+      <c r="M85" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="13:13">
+      <c r="M86" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="13:13">
+      <c r="M87" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="13:13">
+      <c r="M88" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="13:13">
+      <c r="M89" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="13:13">
+      <c r="M90" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="13:13">
+      <c r="M91" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" spans="13:13">
+      <c r="M92" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="13:13">
+      <c r="M93" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="94" spans="13:13">
+      <c r="M94" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" spans="13:13">
+      <c r="M95" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="96" spans="13:13">
+      <c r="M96" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="13:13">
+      <c r="M97" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98" spans="13:13">
+      <c r="M98" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="13:13">
+      <c r="M99" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="13:13">
+      <c r="M100" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="13:13">
+      <c r="M101" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="13:13">
+      <c r="M102" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="13:13">
+      <c r="M103" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="13:13">
+      <c r="M104" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="13:13">
+      <c r="M105" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="13:13">
+      <c r="M106" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="13:13">
+      <c r="M107" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108" spans="13:13">
+      <c r="M108" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="109" spans="13:13">
+      <c r="M109" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="13:13">
+      <c r="M110" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="111" spans="13:13">
+      <c r="M111" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="112" spans="13:13">
+      <c r="M112" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="113" spans="13:13">
+      <c r="M113" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="13:13">
+      <c r="M114" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="13:13">
+      <c r="M115" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="116" spans="13:13">
+      <c r="M116" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="117" spans="13:13">
+      <c r="M117" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="13:13">
+      <c r="M118" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119" spans="13:13">
+      <c r="M119" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="120" spans="13:13">
+      <c r="M120" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="121" spans="13:13">
+      <c r="M121" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" spans="13:13">
+      <c r="M122" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="123" spans="13:13">
+      <c r="M123" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="13:13">
+      <c r="M124" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="13:13">
+      <c r="M125" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="126" spans="13:13">
+      <c r="M126" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="127" spans="13:13">
+      <c r="M127" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="128" spans="13:13">
+      <c r="M128" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="129" spans="13:13">
+      <c r="M129" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="13:13">
+      <c r="M130" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="131" spans="13:13">
+      <c r="M131" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" spans="13:13">
+      <c r="M132" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="133" spans="13:13">
+      <c r="M133" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="134" spans="13:13">
+      <c r="M134" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="135" spans="13:13">
+      <c r="M135" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="136" spans="13:13">
+      <c r="M136" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="137" spans="13:13">
+      <c r="M137" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="138" spans="13:13">
+      <c r="M138" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="139" spans="13:13">
+      <c r="M139" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="140" spans="13:13">
+      <c r="M140" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="141" spans="13:13">
+      <c r="M141" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="142" spans="13:13">
+      <c r="M142" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="143" spans="13:13">
+      <c r="M143" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="144" spans="13:13">
+      <c r="M144" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="145" spans="13:13">
+      <c r="M145" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="146" spans="13:13">
+      <c r="M146" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="147" spans="13:13">
+      <c r="M147" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="148" spans="13:13">
+      <c r="M148" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="149" spans="13:13">
+      <c r="M149" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="150" spans="13:13">
+      <c r="M150" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="151" spans="13:13">
+      <c r="M151" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="152" spans="13:13">
+      <c r="M152" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="153" spans="13:13">
+      <c r="M153" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="154" spans="13:13">
+      <c r="M154" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="155" spans="13:13">
+      <c r="M155" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="156" spans="13:13">
+      <c r="M156" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="157" spans="13:13">
+      <c r="M157" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="158" spans="13:13">
+      <c r="M158" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="159" spans="13:13">
+      <c r="M159" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="160" spans="13:13">
+      <c r="M160" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="161" spans="13:13">
+      <c r="M161" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="162" spans="13:13">
+      <c r="M162" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="163" spans="13:13">
+      <c r="M163" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="164" spans="13:13">
+      <c r="M164" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="165" spans="13:13">
+      <c r="M165" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="166" spans="13:13">
+      <c r="M166" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="167" spans="13:13">
+      <c r="M167" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="168" spans="13:13">
+      <c r="M168" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="169" spans="13:13">
+      <c r="M169" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="170" spans="13:13">
+      <c r="M170" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="171" spans="13:13">
+      <c r="M171" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="172" spans="13:13">
+      <c r="M172" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="173" spans="13:13">
+      <c r="M173" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="174" spans="13:13">
+      <c r="M174" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="175" spans="13:13">
+      <c r="M175" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="176" spans="13:13">
+      <c r="M176" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="177" spans="13:13">
+      <c r="M177" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="178" spans="13:13">
+      <c r="M178" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="179" spans="13:13">
+      <c r="M179" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="180" spans="13:13">
+      <c r="M180" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="181" spans="13:13">
+      <c r="M181" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="182" spans="13:13">
+      <c r="M182" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="183" spans="13:13">
+      <c r="M183" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="184" spans="13:13">
+      <c r="M184" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="185" spans="13:13">
+      <c r="M185" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="186" spans="13:13">
+      <c r="M186" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="187" spans="13:13">
+      <c r="M187" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="188" spans="13:13">
+      <c r="M188" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="189" spans="13:13">
+      <c r="M189" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="190" spans="13:13">
+      <c r="M190" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="191" spans="13:13">
+      <c r="M191" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="192" spans="13:13">
+      <c r="M192" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="193" spans="13:13">
+      <c r="M193" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="194" spans="13:13">
+      <c r="M194" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="195" spans="13:13">
+      <c r="M195" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="196" spans="13:13">
+      <c r="M196" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="197" spans="13:13">
+      <c r="M197" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="198" spans="13:13">
+      <c r="M198" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="199" spans="13:13">
+      <c r="M199" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="200" spans="13:13">
+      <c r="M200" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="201" spans="13:13">
+      <c r="M201" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="202" spans="13:13">
+      <c r="M202" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="203" spans="13:13">
+      <c r="M203" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="204" spans="13:13">
+      <c r="M204" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="205" spans="13:13">
+      <c r="M205" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="206" spans="13:13">
+      <c r="M206" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="207" spans="13:13">
+      <c r="M207" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="208" spans="13:13">
+      <c r="M208" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="209" spans="13:13">
+      <c r="M209" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="210" spans="13:13">
+      <c r="M210" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="211" spans="13:13">
+      <c r="M211" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="212" spans="13:13">
+      <c r="M212" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="213" spans="13:13">
+      <c r="M213" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="214" spans="13:13">
+      <c r="M214" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="215" spans="13:13">
+      <c r="M215" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="216" spans="13:13">
+      <c r="M216" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="217" spans="13:13">
+      <c r="M217" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="218" spans="13:13">
+      <c r="M218" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="219" spans="13:13">
+      <c r="M219" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="220" spans="13:13">
+      <c r="M220" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="221" spans="13:13">
+      <c r="M221" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="222" spans="13:13">
+      <c r="M222" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="223" spans="13:13">
+      <c r="M223" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="224" spans="13:13">
+      <c r="M224" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="225" spans="13:13">
+      <c r="M225" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="226" spans="13:13">
+      <c r="M226" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="227" spans="13:13">
+      <c r="M227" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="228" spans="13:13">
+      <c r="M228" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="229" spans="13:13">
+      <c r="M229" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="230" spans="13:13">
+      <c r="M230" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="231" spans="13:13">
+      <c r="M231" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="232" spans="13:13">
+      <c r="M232" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="233" spans="13:13">
+      <c r="M233" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="234" spans="13:13">
+      <c r="M234" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="235" spans="13:13">
+      <c r="M235" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="236" spans="13:13">
+      <c r="M236" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="237" spans="13:13">
+      <c r="M237" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="238" spans="13:13">
+      <c r="M238" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="239" spans="13:13">
+      <c r="M239" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="240" spans="13:13">
+      <c r="M240" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="241" spans="13:13">
+      <c r="M241" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="242" spans="13:13">
+      <c r="M242" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="243" spans="13:13">
+      <c r="M243" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="244" spans="13:13">
+      <c r="M244" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="245" spans="13:13">
+      <c r="M245" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="246" spans="13:13">
+      <c r="M246" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="247" spans="13:13">
+      <c r="M247" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="248" spans="13:13">
+      <c r="M248" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="249" spans="13:13">
+      <c r="M249" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="250" spans="13:13">
+      <c r="M250" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="251" spans="13:13">
+      <c r="M251" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="252" spans="13:13">
+      <c r="M252" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="253" spans="13:13">
+      <c r="M253" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="254" spans="13:13">
+      <c r="M254" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="255" spans="13:13">
+      <c r="M255" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="256" spans="13:13">
+      <c r="M256" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="257" spans="13:13">
+      <c r="M257" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="258" spans="13:13">
+      <c r="M258" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="259" spans="13:13">
+      <c r="M259" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="260" spans="13:13">
+      <c r="M260" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="261" spans="13:13">
+      <c r="M261" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="262" spans="13:13">
+      <c r="M262" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="263" spans="13:13">
+      <c r="M263" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="264" spans="13:13">
+      <c r="M264" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="265" spans="13:13">
+      <c r="M265" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="266" spans="13:13">
+      <c r="M266" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="267" spans="13:13">
+      <c r="M267" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="9:14">
-      <c r="I4" t="s">
-        <v>277</v>
-      </c>
-      <c r="N4" t="s">
+    <row r="268" spans="13:13">
+      <c r="M268" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="5" spans="9:14">
-      <c r="I5" t="s">
-        <v>278</v>
-      </c>
-      <c r="N5" t="s">
+    <row r="269" spans="13:13">
+      <c r="M269" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="6" spans="9:14">
-      <c r="I6" t="s">
-        <v>279</v>
-      </c>
-      <c r="N6" t="s">
+    <row r="270" spans="13:13">
+      <c r="M270" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="9:14">
-      <c r="I7" t="s">
-        <v>280</v>
-      </c>
-      <c r="N7" t="s">
+    <row r="271" spans="13:13">
+      <c r="M271" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="9:14">
-      <c r="I8" t="s">
-        <v>281</v>
-      </c>
-      <c r="N8" t="s">
+    <row r="272" spans="13:13">
+      <c r="M272" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="9" spans="9:14">
-      <c r="I9" t="s">
-        <v>282</v>
-      </c>
-      <c r="N9" t="s">
+    <row r="273" spans="13:13">
+      <c r="M273" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="10" spans="9:14">
-      <c r="I10" t="s">
-        <v>283</v>
-      </c>
-      <c r="N10" t="s">
+    <row r="274" spans="13:13">
+      <c r="M274" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="11" spans="9:14">
-      <c r="I11" t="s">
-        <v>284</v>
-      </c>
-      <c r="N11" t="s">
+    <row r="275" spans="13:13">
+      <c r="M275" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="9:14">
-      <c r="I12" t="s">
-        <v>285</v>
-      </c>
-      <c r="N12" t="s">
+    <row r="276" spans="13:13">
+      <c r="M276" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="13" spans="9:14">
-      <c r="I13" t="s">
-        <v>286</v>
-      </c>
-      <c r="N13" t="s">
+    <row r="277" spans="13:13">
+      <c r="M277" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="14" spans="9:14">
-      <c r="I14" t="s">
-        <v>287</v>
-      </c>
-      <c r="N14" t="s">
+    <row r="278" spans="13:13">
+      <c r="M278" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="9:14">
-      <c r="I15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="9:14">
-      <c r="I16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9">
-      <c r="I17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9">
-      <c r="I18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9">
-      <c r="I19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9">
-      <c r="I20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9">
-      <c r="I21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9">
-      <c r="I22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9">
-      <c r="I23" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9">
-      <c r="I24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9">
-      <c r="I25" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9">
-      <c r="I26" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9">
-      <c r="I27" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="9:9">
-      <c r="I28" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29" spans="9:9">
-      <c r="I29" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="9:9">
-      <c r="I30" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" spans="9:9">
-      <c r="I31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="32" spans="9:9">
-      <c r="I32" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9">
-      <c r="I33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9">
-      <c r="I34" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="35" spans="9:9">
-      <c r="I35" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="9:9">
-      <c r="I36" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="9:9">
-      <c r="I37" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="9:9">
-      <c r="I38" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9">
-      <c r="I39" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="9:9">
-      <c r="I40" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="41" spans="9:9">
-      <c r="I41" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="42" spans="9:9">
-      <c r="I42" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="43" spans="9:9">
-      <c r="I43" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="44" spans="9:9">
-      <c r="I44" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="45" spans="9:9">
-      <c r="I45" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="9:9">
-      <c r="I46" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="9:9">
-      <c r="I47" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="9:9">
-      <c r="I48" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9">
-      <c r="I49" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="50" spans="9:9">
-      <c r="I50" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9">
-      <c r="I51" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="52" spans="9:9">
-      <c r="I52" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9">
-      <c r="I53" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="9:9">
-      <c r="I54" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="9:9">
-      <c r="I55" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="9:9">
-      <c r="I56" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="57" spans="9:9">
-      <c r="I57" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="58" spans="9:9">
-      <c r="I58" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="9:9">
-      <c r="I59" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="60" spans="9:9">
-      <c r="I60" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="9:9">
-      <c r="I61" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="62" spans="9:9">
-      <c r="I62" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="63" spans="9:9">
-      <c r="I63" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="64" spans="9:9">
-      <c r="I64" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9">
-      <c r="I65" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="66" spans="9:9">
-      <c r="I66" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="9:9">
-      <c r="I67" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9">
-      <c r="I68" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="69" spans="9:9">
-      <c r="I69" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="70" spans="9:9">
-      <c r="I70" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="71" spans="9:9">
-      <c r="I71" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="72" spans="9:9">
-      <c r="I72" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73" spans="9:9">
-      <c r="I73" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="9:9">
-      <c r="I74" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="9:9">
-      <c r="I75" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="9:9">
-      <c r="I76" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="77" spans="9:9">
-      <c r="I77" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="78" spans="9:9">
-      <c r="I78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="79" spans="9:9">
-      <c r="I79" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="80" spans="9:9">
-      <c r="I80" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="81" spans="9:9">
-      <c r="I81" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="82" spans="9:9">
-      <c r="I82" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="83" spans="9:9">
-      <c r="I83" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="84" spans="9:9">
-      <c r="I84" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="85" spans="9:9">
-      <c r="I85" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="86" spans="9:9">
-      <c r="I86" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="87" spans="9:9">
-      <c r="I87" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="88" spans="9:9">
-      <c r="I88" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="89" spans="9:9">
-      <c r="I89" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="90" spans="9:9">
-      <c r="I90" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="91" spans="9:9">
-      <c r="I91" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="92" spans="9:9">
-      <c r="I92" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="93" spans="9:9">
-      <c r="I93" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="94" spans="9:9">
-      <c r="I94" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="95" spans="9:9">
-      <c r="I95" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="96" spans="9:9">
-      <c r="I96" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97" spans="9:9">
-      <c r="I97" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="9:9">
-      <c r="I98" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="99" spans="9:9">
-      <c r="I99" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="100" spans="9:9">
-      <c r="I100" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="101" spans="9:9">
-      <c r="I101" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="102" spans="9:9">
-      <c r="I102" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="103" spans="9:9">
-      <c r="I103" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="104" spans="9:9">
-      <c r="I104" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="105" spans="9:9">
-      <c r="I105" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="106" spans="9:9">
-      <c r="I106" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="107" spans="9:9">
-      <c r="I107" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="108" spans="9:9">
-      <c r="I108" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="109" spans="9:9">
-      <c r="I109" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="110" spans="9:9">
-      <c r="I110" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="111" spans="9:9">
-      <c r="I111" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="112" spans="9:9">
-      <c r="I112" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="113" spans="9:9">
-      <c r="I113" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="114" spans="9:9">
-      <c r="I114" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="115" spans="9:9">
-      <c r="I115" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="116" spans="9:9">
-      <c r="I116" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="117" spans="9:9">
-      <c r="I117" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="118" spans="9:9">
-      <c r="I118" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="119" spans="9:9">
-      <c r="I119" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="120" spans="9:9">
-      <c r="I120" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="121" spans="9:9">
-      <c r="I121" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="122" spans="9:9">
-      <c r="I122" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="123" spans="9:9">
-      <c r="I123" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="124" spans="9:9">
-      <c r="I124" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="125" spans="9:9">
-      <c r="I125" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="126" spans="9:9">
-      <c r="I126" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="127" spans="9:9">
-      <c r="I127" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="128" spans="9:9">
-      <c r="I128" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="129" spans="9:9">
-      <c r="I129" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="130" spans="9:9">
-      <c r="I130" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="131" spans="9:9">
-      <c r="I131" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="132" spans="9:9">
-      <c r="I132" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="133" spans="9:9">
-      <c r="I133" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="134" spans="9:9">
-      <c r="I134" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="135" spans="9:9">
-      <c r="I135" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="136" spans="9:9">
-      <c r="I136" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="137" spans="9:9">
-      <c r="I137" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="138" spans="9:9">
-      <c r="I138" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="139" spans="9:9">
-      <c r="I139" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="140" spans="9:9">
-      <c r="I140" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="141" spans="9:9">
-      <c r="I141" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="142" spans="9:9">
-      <c r="I142" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="143" spans="9:9">
-      <c r="I143" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="144" spans="9:9">
-      <c r="I144" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="145" spans="9:9">
-      <c r="I145" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="146" spans="9:9">
-      <c r="I146" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="147" spans="9:9">
-      <c r="I147" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="148" spans="9:9">
-      <c r="I148" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="149" spans="9:9">
-      <c r="I149" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="150" spans="9:9">
-      <c r="I150" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="151" spans="9:9">
-      <c r="I151" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="152" spans="9:9">
-      <c r="I152" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="153" spans="9:9">
-      <c r="I153" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="154" spans="9:9">
-      <c r="I154" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="155" spans="9:9">
-      <c r="I155" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="156" spans="9:9">
-      <c r="I156" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="157" spans="9:9">
-      <c r="I157" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="158" spans="9:9">
-      <c r="I158" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="159" spans="9:9">
-      <c r="I159" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="160" spans="9:9">
-      <c r="I160" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="161" spans="9:9">
-      <c r="I161" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="162" spans="9:9">
-      <c r="I162" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="163" spans="9:9">
-      <c r="I163" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="164" spans="9:9">
-      <c r="I164" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="165" spans="9:9">
-      <c r="I165" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="166" spans="9:9">
-      <c r="I166" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="167" spans="9:9">
-      <c r="I167" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="168" spans="9:9">
-      <c r="I168" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="169" spans="9:9">
-      <c r="I169" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="170" spans="9:9">
-      <c r="I170" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="171" spans="9:9">
-      <c r="I171" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="172" spans="9:9">
-      <c r="I172" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="173" spans="9:9">
-      <c r="I173" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="174" spans="9:9">
-      <c r="I174" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="175" spans="9:9">
-      <c r="I175" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="176" spans="9:9">
-      <c r="I176" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="177" spans="9:9">
-      <c r="I177" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="178" spans="9:9">
-      <c r="I178" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="179" spans="9:9">
-      <c r="I179" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="180" spans="9:9">
-      <c r="I180" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="181" spans="9:9">
-      <c r="I181" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="182" spans="9:9">
-      <c r="I182" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="183" spans="9:9">
-      <c r="I183" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="184" spans="9:9">
-      <c r="I184" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="185" spans="9:9">
-      <c r="I185" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="186" spans="9:9">
-      <c r="I186" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="187" spans="9:9">
-      <c r="I187" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="188" spans="9:9">
-      <c r="I188" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="189" spans="9:9">
-      <c r="I189" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="190" spans="9:9">
-      <c r="I190" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="191" spans="9:9">
-      <c r="I191" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="192" spans="9:9">
-      <c r="I192" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="193" spans="9:9">
-      <c r="I193" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="194" spans="9:9">
-      <c r="I194" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="195" spans="9:9">
-      <c r="I195" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="196" spans="9:9">
-      <c r="I196" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="197" spans="9:9">
-      <c r="I197" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="198" spans="9:9">
-      <c r="I198" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="199" spans="9:9">
-      <c r="I199" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="200" spans="9:9">
-      <c r="I200" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="201" spans="9:9">
-      <c r="I201" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="202" spans="9:9">
-      <c r="I202" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="203" spans="9:9">
-      <c r="I203" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="204" spans="9:9">
-      <c r="I204" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="205" spans="9:9">
-      <c r="I205" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="206" spans="9:9">
-      <c r="I206" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="207" spans="9:9">
-      <c r="I207" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="208" spans="9:9">
-      <c r="I208" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="209" spans="9:9">
-      <c r="I209" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="210" spans="9:9">
-      <c r="I210" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="211" spans="9:9">
-      <c r="I211" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="212" spans="9:9">
-      <c r="I212" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="213" spans="9:9">
-      <c r="I213" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="214" spans="9:9">
-      <c r="I214" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="215" spans="9:9">
-      <c r="I215" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="216" spans="9:9">
-      <c r="I216" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="217" spans="9:9">
-      <c r="I217" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="218" spans="9:9">
-      <c r="I218" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="219" spans="9:9">
-      <c r="I219" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="220" spans="9:9">
-      <c r="I220" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="221" spans="9:9">
-      <c r="I221" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="222" spans="9:9">
-      <c r="I222" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="223" spans="9:9">
-      <c r="I223" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="224" spans="9:9">
-      <c r="I224" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="225" spans="9:9">
-      <c r="I225" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="226" spans="9:9">
-      <c r="I226" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="227" spans="9:9">
-      <c r="I227" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="228" spans="9:9">
-      <c r="I228" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="229" spans="9:9">
-      <c r="I229" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="230" spans="9:9">
-      <c r="I230" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="231" spans="9:9">
-      <c r="I231" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="232" spans="9:9">
-      <c r="I232" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="233" spans="9:9">
-      <c r="I233" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="234" spans="9:9">
-      <c r="I234" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="235" spans="9:9">
-      <c r="I235" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="236" spans="9:9">
-      <c r="I236" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="237" spans="9:9">
-      <c r="I237" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="238" spans="9:9">
-      <c r="I238" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="239" spans="9:9">
-      <c r="I239" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="240" spans="9:9">
-      <c r="I240" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="241" spans="9:9">
-      <c r="I241" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="242" spans="9:9">
-      <c r="I242" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="243" spans="9:9">
-      <c r="I243" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="244" spans="9:9">
-      <c r="I244" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="245" spans="9:9">
-      <c r="I245" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="246" spans="9:9">
-      <c r="I246" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="247" spans="9:9">
-      <c r="I247" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="248" spans="9:9">
-      <c r="I248" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="249" spans="9:9">
-      <c r="I249" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="250" spans="9:9">
-      <c r="I250" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="251" spans="9:9">
-      <c r="I251" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="252" spans="9:9">
-      <c r="I252" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="253" spans="9:9">
-      <c r="I253" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="254" spans="9:9">
-      <c r="I254" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="255" spans="9:9">
-      <c r="I255" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="256" spans="9:9">
-      <c r="I256" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="257" spans="9:9">
-      <c r="I257" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="258" spans="9:9">
-      <c r="I258" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="259" spans="9:9">
-      <c r="I259" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="260" spans="9:9">
-      <c r="I260" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="261" spans="9:9">
-      <c r="I261" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="262" spans="9:9">
-      <c r="I262" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="263" spans="9:9">
-      <c r="I263" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="264" spans="9:9">
-      <c r="I264" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="265" spans="9:9">
-      <c r="I265" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="266" spans="9:9">
-      <c r="I266" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="267" spans="9:9">
-      <c r="I267" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="268" spans="9:9">
-      <c r="I268" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="269" spans="9:9">
-      <c r="I269" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="270" spans="9:9">
-      <c r="I270" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="271" spans="9:9">
-      <c r="I271" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="272" spans="9:9">
-      <c r="I272" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="273" spans="9:9">
-      <c r="I273" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="274" spans="9:9">
-      <c r="I274" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="275" spans="9:9">
-      <c r="I275" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="276" spans="9:9">
-      <c r="I276" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="277" spans="9:9">
-      <c r="I277" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="278" spans="9:9">
-      <c r="I278" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="279" spans="9:9">
-      <c r="I279" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="280" spans="9:9">
-      <c r="I280" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="281" spans="9:9">
-      <c r="I281" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="282" spans="9:9">
-      <c r="I282" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="283" spans="9:9">
-      <c r="I283" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="284" spans="9:9">
-      <c r="I284" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="285" spans="9:9">
-      <c r="I285" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="286" spans="9:9">
-      <c r="I286" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="287" spans="9:9">
-      <c r="I287" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="288" spans="9:9">
-      <c r="I288" t="s">
-        <v>561</v>
+    <row r="279" spans="13:13">
+      <c r="M279" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="280" spans="13:13">
+      <c r="M280" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="281" spans="13:13">
+      <c r="M281" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="282" spans="13:13">
+      <c r="M282" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="283" spans="13:13">
+      <c r="M283" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="284" spans="13:13">
+      <c r="M284" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="285" spans="13:13">
+      <c r="M285" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="286" spans="13:13">
+      <c r="M286" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="287" spans="13:13">
+      <c r="M287" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="288" spans="13:13">
+      <c r="M288" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="289" spans="13:13">
+      <c r="M289" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -21,7 +21,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$N$1:$N$14</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="600">
   <si>
     <t>alias</t>
   </si>
@@ -636,6 +636,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2368,7 +2371,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2412,7 +2415,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3151,6 +3154,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3175,27 +3183,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3218,122 +3226,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3360,144 +3368,144 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -3526,1495 +3534,1495 @@
   <sheetData>
     <row r="1" spans="11:14">
       <c r="K1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="11:14">
       <c r="K2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="11:14">
       <c r="M3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="11:14">
       <c r="M4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="11:14">
       <c r="M5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="11:14">
       <c r="M6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="11:14">
       <c r="M7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="11:14">
       <c r="M8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="11:14">
       <c r="M9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="11:14">
       <c r="M10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="11:14">
       <c r="M11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="11:14">
       <c r="M12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="11:14">
       <c r="M13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="11:14">
       <c r="M14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N14" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="11:14">
       <c r="M15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="11:14">
       <c r="M16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="13:13">
       <c r="M17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="13:13">
       <c r="M18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="13:13">
       <c r="M19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="13:13">
       <c r="M20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="13:13">
       <c r="M21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="13:13">
       <c r="M23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="13:13">
       <c r="M24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="13:13">
       <c r="M25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="13:13">
       <c r="M26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="13:13">
       <c r="M27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="13:13">
       <c r="M28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="13:13">
       <c r="M29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="13:13">
       <c r="M30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="13:13">
       <c r="M31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="13:13">
       <c r="M32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="13:13">
       <c r="M33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="13:13">
       <c r="M34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="13:13">
       <c r="M35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="13:13">
       <c r="M36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="13:13">
       <c r="M37" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="13:13">
       <c r="M38" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="13:13">
       <c r="M39" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="13:13">
       <c r="M40" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="13:13">
       <c r="M41" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="13:13">
       <c r="M42" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="13:13">
       <c r="M43" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="13:13">
       <c r="M44" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="13:13">
       <c r="M45" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="13:13">
       <c r="M46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="13:13">
       <c r="M47" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="13:13">
       <c r="M48" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="13:13">
       <c r="M49" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="13:13">
       <c r="M50" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="13:13">
       <c r="M51" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="13:13">
       <c r="M52" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="13:13">
       <c r="M53" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="13:13">
       <c r="M54" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="13:13">
       <c r="M55" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="13:13">
       <c r="M56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="13:13">
       <c r="M57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="13:13">
       <c r="M58" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="13:13">
       <c r="M60" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="13:13">
       <c r="M61" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="13:13">
       <c r="M62" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="13:13">
       <c r="M63" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="13:13">
       <c r="M64" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="13:13">
       <c r="M65" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="13:13">
       <c r="M66" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="13:13">
       <c r="M67" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="13:13">
       <c r="M68" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="13:13">
       <c r="M69" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="13:13">
       <c r="M70" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="13:13">
       <c r="M71" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="13:13">
       <c r="M72" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="13:13">
       <c r="M73" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="13:13">
       <c r="M74" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="13:13">
       <c r="M75" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="13:13">
       <c r="M76" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="13:13">
       <c r="M77" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="13:13">
       <c r="M78" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="13:13">
       <c r="M79" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="13:13">
       <c r="M80" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="13:13">
       <c r="M81" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="13:13">
       <c r="M82" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="13:13">
       <c r="M83" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="13:13">
       <c r="M84" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="13:13">
       <c r="M85" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" spans="13:13">
       <c r="M86" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="13:13">
       <c r="M87" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="13:13">
       <c r="M88" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="13:13">
       <c r="M89" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="13:13">
       <c r="M90" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="13:13">
       <c r="M91" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="13:13">
       <c r="M92" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="13:13">
       <c r="M93" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="13:13">
       <c r="M94" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="13:13">
       <c r="M95" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="13:13">
       <c r="M96" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="13:13">
       <c r="M97" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="13:13">
       <c r="M98" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="13:13">
       <c r="M99" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="13:13">
       <c r="M100" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="13:13">
       <c r="M101" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="13:13">
       <c r="M102" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="13:13">
       <c r="M103" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="13:13">
       <c r="M104" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="13:13">
       <c r="M105" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="13:13">
       <c r="M106" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="13:13">
       <c r="M107" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="13:13">
       <c r="M108" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="13:13">
       <c r="M109" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="13:13">
       <c r="M110" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="13:13">
       <c r="M111" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112" spans="13:13">
       <c r="M112" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="113" spans="13:13">
       <c r="M113" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="13:13">
       <c r="M114" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" spans="13:13">
       <c r="M115" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="13:13">
       <c r="M116" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="13:13">
       <c r="M117" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="13:13">
       <c r="M118" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="13:13">
       <c r="M119" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="13:13">
       <c r="M120" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="13:13">
       <c r="M121" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="13:13">
       <c r="M122" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="13:13">
       <c r="M123" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="124" spans="13:13">
       <c r="M124" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="13:13">
       <c r="M125" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="13:13">
       <c r="M126" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" spans="13:13">
       <c r="M127" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="13:13">
       <c r="M128" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="129" spans="13:13">
       <c r="M129" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="130" spans="13:13">
       <c r="M130" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="13:13">
       <c r="M131" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="132" spans="13:13">
       <c r="M132" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="133" spans="13:13">
       <c r="M133" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="134" spans="13:13">
       <c r="M134" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="135" spans="13:13">
       <c r="M135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="136" spans="13:13">
       <c r="M136" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="137" spans="13:13">
       <c r="M137" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="138" spans="13:13">
       <c r="M138" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="139" spans="13:13">
       <c r="M139" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="140" spans="13:13">
       <c r="M140" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="141" spans="13:13">
       <c r="M141" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="142" spans="13:13">
       <c r="M142" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="143" spans="13:13">
       <c r="M143" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="144" spans="13:13">
       <c r="M144" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="145" spans="13:13">
       <c r="M145" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="146" spans="13:13">
       <c r="M146" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="147" spans="13:13">
       <c r="M147" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="148" spans="13:13">
       <c r="M148" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="149" spans="13:13">
       <c r="M149" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="150" spans="13:13">
       <c r="M150" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="151" spans="13:13">
       <c r="M151" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="152" spans="13:13">
       <c r="M152" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="153" spans="13:13">
       <c r="M153" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="154" spans="13:13">
       <c r="M154" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="155" spans="13:13">
       <c r="M155" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="156" spans="13:13">
       <c r="M156" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="157" spans="13:13">
       <c r="M157" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="158" spans="13:13">
       <c r="M158" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="13:13">
       <c r="M159" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="160" spans="13:13">
       <c r="M160" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="161" spans="13:13">
       <c r="M161" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="162" spans="13:13">
       <c r="M162" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="163" spans="13:13">
       <c r="M163" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="164" spans="13:13">
       <c r="M164" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="165" spans="13:13">
       <c r="M165" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="166" spans="13:13">
       <c r="M166" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="167" spans="13:13">
       <c r="M167" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="168" spans="13:13">
       <c r="M168" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="169" spans="13:13">
       <c r="M169" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="170" spans="13:13">
       <c r="M170" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="171" spans="13:13">
       <c r="M171" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="172" spans="13:13">
       <c r="M172" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="173" spans="13:13">
       <c r="M173" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="174" spans="13:13">
       <c r="M174" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="175" spans="13:13">
       <c r="M175" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="176" spans="13:13">
       <c r="M176" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="177" spans="13:13">
       <c r="M177" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="178" spans="13:13">
       <c r="M178" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="179" spans="13:13">
       <c r="M179" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="180" spans="13:13">
       <c r="M180" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="181" spans="13:13">
       <c r="M181" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="182" spans="13:13">
       <c r="M182" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="183" spans="13:13">
       <c r="M183" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="184" spans="13:13">
       <c r="M184" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="185" spans="13:13">
       <c r="M185" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="186" spans="13:13">
       <c r="M186" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="187" spans="13:13">
       <c r="M187" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="188" spans="13:13">
       <c r="M188" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="189" spans="13:13">
       <c r="M189" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="190" spans="13:13">
       <c r="M190" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="191" spans="13:13">
       <c r="M191" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="192" spans="13:13">
       <c r="M192" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="193" spans="13:13">
       <c r="M193" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="194" spans="13:13">
       <c r="M194" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="195" spans="13:13">
       <c r="M195" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="196" spans="13:13">
       <c r="M196" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="197" spans="13:13">
       <c r="M197" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="198" spans="13:13">
       <c r="M198" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="199" spans="13:13">
       <c r="M199" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="200" spans="13:13">
       <c r="M200" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="201" spans="13:13">
       <c r="M201" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="202" spans="13:13">
       <c r="M202" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="203" spans="13:13">
       <c r="M203" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="204" spans="13:13">
       <c r="M204" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="205" spans="13:13">
       <c r="M205" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="206" spans="13:13">
       <c r="M206" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="207" spans="13:13">
       <c r="M207" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="208" spans="13:13">
       <c r="M208" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="209" spans="13:13">
       <c r="M209" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="210" spans="13:13">
       <c r="M210" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="211" spans="13:13">
       <c r="M211" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="212" spans="13:13">
       <c r="M212" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="213" spans="13:13">
       <c r="M213" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="214" spans="13:13">
       <c r="M214" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="215" spans="13:13">
       <c r="M215" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="216" spans="13:13">
       <c r="M216" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="217" spans="13:13">
       <c r="M217" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="218" spans="13:13">
       <c r="M218" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="219" spans="13:13">
       <c r="M219" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="220" spans="13:13">
       <c r="M220" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="221" spans="13:13">
       <c r="M221" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="222" spans="13:13">
       <c r="M222" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="223" spans="13:13">
       <c r="M223" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="224" spans="13:13">
       <c r="M224" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="225" spans="13:13">
       <c r="M225" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="226" spans="13:13">
       <c r="M226" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="227" spans="13:13">
       <c r="M227" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="228" spans="13:13">
       <c r="M228" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="229" spans="13:13">
       <c r="M229" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="230" spans="13:13">
       <c r="M230" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="231" spans="13:13">
       <c r="M231" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="232" spans="13:13">
       <c r="M232" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="233" spans="13:13">
       <c r="M233" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="234" spans="13:13">
       <c r="M234" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="235" spans="13:13">
       <c r="M235" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="236" spans="13:13">
       <c r="M236" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="237" spans="13:13">
       <c r="M237" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="238" spans="13:13">
       <c r="M238" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="239" spans="13:13">
       <c r="M239" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="240" spans="13:13">
       <c r="M240" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="241" spans="13:13">
       <c r="M241" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="242" spans="13:13">
       <c r="M242" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="243" spans="13:13">
       <c r="M243" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="244" spans="13:13">
       <c r="M244" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="245" spans="13:13">
       <c r="M245" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="246" spans="13:13">
       <c r="M246" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="247" spans="13:13">
       <c r="M247" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="248" spans="13:13">
       <c r="M248" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="249" spans="13:13">
       <c r="M249" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="250" spans="13:13">
       <c r="M250" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="251" spans="13:13">
       <c r="M251" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="252" spans="13:13">
       <c r="M252" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="253" spans="13:13">
       <c r="M253" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="254" spans="13:13">
       <c r="M254" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="255" spans="13:13">
       <c r="M255" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="256" spans="13:13">
       <c r="M256" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="257" spans="13:13">
       <c r="M257" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="258" spans="13:13">
       <c r="M258" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="259" spans="13:13">
       <c r="M259" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="260" spans="13:13">
       <c r="M260" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="261" spans="13:13">
       <c r="M261" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="262" spans="13:13">
       <c r="M262" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="263" spans="13:13">
       <c r="M263" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="264" spans="13:13">
       <c r="M264" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="265" spans="13:13">
       <c r="M265" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="266" spans="13:13">
       <c r="M266" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="267" spans="13:13">
       <c r="M267" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="268" spans="13:13">
       <c r="M268" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="269" spans="13:13">
       <c r="M269" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="270" spans="13:13">
       <c r="M270" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="271" spans="13:13">
       <c r="M271" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="272" spans="13:13">
       <c r="M272" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="273" spans="13:13">
       <c r="M273" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="274" spans="13:13">
       <c r="M274" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="275" spans="13:13">
       <c r="M275" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="276" spans="13:13">
       <c r="M276" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="277" spans="13:13">
       <c r="M277" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="278" spans="13:13">
       <c r="M278" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="279" spans="13:13">
       <c r="M279" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="280" spans="13:13">
       <c r="M280" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="281" spans="13:13">
       <c r="M281" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="282" spans="13:13">
       <c r="M282" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="283" spans="13:13">
       <c r="M283" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="284" spans="13:13">
       <c r="M284" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="285" spans="13:13">
       <c r="M285" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="286" spans="13:13">
       <c r="M286" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="287" spans="13:13">
       <c r="M287" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="13:13">
       <c r="M288" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="289" spans="13:13">
       <c r="M289" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -21,7 +21,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$N$1:$N$14</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="601">
   <si>
     <t>alias</t>
   </si>
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2371,7 +2374,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2415,7 +2418,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2445,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3159,6 +3162,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3183,27 +3191,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3226,122 +3234,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3368,144 +3376,144 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -3534,1495 +3542,1495 @@
   <sheetData>
     <row r="1" spans="11:14">
       <c r="K1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="11:14">
       <c r="K2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="11:14">
       <c r="M3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="11:14">
       <c r="M4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="11:14">
       <c r="M5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="11:14">
       <c r="M6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="11:14">
       <c r="M7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="11:14">
       <c r="M8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="11:14">
       <c r="M9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="11:14">
       <c r="M10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="11:14">
       <c r="M11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="11:14">
       <c r="M12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N12" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="11:14">
       <c r="M13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="11:14">
       <c r="M14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N14" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="11:14">
       <c r="M15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="11:14">
       <c r="M16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="13:13">
       <c r="M17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="13:13">
       <c r="M18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="13:13">
       <c r="M19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="13:13">
       <c r="M20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="13:13">
       <c r="M21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="13:13">
       <c r="M23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="13:13">
       <c r="M24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="13:13">
       <c r="M25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="13:13">
       <c r="M26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="13:13">
       <c r="M27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="13:13">
       <c r="M28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="13:13">
       <c r="M29" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="13:13">
       <c r="M30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="13:13">
       <c r="M31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="13:13">
       <c r="M32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="13:13">
       <c r="M33" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="13:13">
       <c r="M34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="13:13">
       <c r="M35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="13:13">
       <c r="M36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="13:13">
       <c r="M37" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="13:13">
       <c r="M38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="13:13">
       <c r="M39" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="13:13">
       <c r="M40" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="13:13">
       <c r="M41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="13:13">
       <c r="M42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="13:13">
       <c r="M43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="13:13">
       <c r="M44" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="13:13">
       <c r="M45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="13:13">
       <c r="M46" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="13:13">
       <c r="M47" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="13:13">
       <c r="M48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="13:13">
       <c r="M49" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="13:13">
       <c r="M50" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="13:13">
       <c r="M51" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="13:13">
       <c r="M52" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="13:13">
       <c r="M53" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="13:13">
       <c r="M54" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="13:13">
       <c r="M55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" spans="13:13">
       <c r="M56" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="13:13">
       <c r="M57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="13:13">
       <c r="M58" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="13:13">
       <c r="M60" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="13:13">
       <c r="M61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="13:13">
       <c r="M62" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="13:13">
       <c r="M63" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="13:13">
       <c r="M64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="13:13">
       <c r="M65" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="13:13">
       <c r="M66" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="13:13">
       <c r="M67" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="13:13">
       <c r="M68" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="13:13">
       <c r="M69" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="13:13">
       <c r="M70" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="13:13">
       <c r="M71" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="13:13">
       <c r="M72" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="13:13">
       <c r="M73" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="13:13">
       <c r="M74" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="13:13">
       <c r="M75" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="13:13">
       <c r="M76" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="13:13">
       <c r="M77" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="13:13">
       <c r="M78" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="13:13">
       <c r="M79" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="13:13">
       <c r="M80" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="13:13">
       <c r="M81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82" spans="13:13">
       <c r="M82" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="13:13">
       <c r="M83" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="13:13">
       <c r="M84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="13:13">
       <c r="M85" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="13:13">
       <c r="M86" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="13:13">
       <c r="M87" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="13:13">
       <c r="M88" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="89" spans="13:13">
       <c r="M89" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="13:13">
       <c r="M90" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="13:13">
       <c r="M91" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="13:13">
       <c r="M92" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="13:13">
       <c r="M93" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="13:13">
       <c r="M94" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="13:13">
       <c r="M95" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="13:13">
       <c r="M96" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="13:13">
       <c r="M97" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="13:13">
       <c r="M98" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="13:13">
       <c r="M99" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" spans="13:13">
       <c r="M100" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="13:13">
       <c r="M101" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="13:13">
       <c r="M102" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="13:13">
       <c r="M103" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="104" spans="13:13">
       <c r="M104" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="105" spans="13:13">
       <c r="M105" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="106" spans="13:13">
       <c r="M106" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="13:13">
       <c r="M107" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="13:13">
       <c r="M108" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="109" spans="13:13">
       <c r="M109" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="13:13">
       <c r="M110" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111" spans="13:13">
       <c r="M111" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="112" spans="13:13">
       <c r="M112" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="113" spans="13:13">
       <c r="M113" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="114" spans="13:13">
       <c r="M114" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" spans="13:13">
       <c r="M115" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="13:13">
       <c r="M116" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="13:13">
       <c r="M117" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="118" spans="13:13">
       <c r="M118" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119" spans="13:13">
       <c r="M119" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="120" spans="13:13">
       <c r="M120" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121" spans="13:13">
       <c r="M121" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="122" spans="13:13">
       <c r="M122" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="123" spans="13:13">
       <c r="M123" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="124" spans="13:13">
       <c r="M124" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="125" spans="13:13">
       <c r="M125" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="126" spans="13:13">
       <c r="M126" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="127" spans="13:13">
       <c r="M127" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="128" spans="13:13">
       <c r="M128" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="129" spans="13:13">
       <c r="M129" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130" spans="13:13">
       <c r="M130" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="131" spans="13:13">
       <c r="M131" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="13:13">
       <c r="M132" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" spans="13:13">
       <c r="M133" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="134" spans="13:13">
       <c r="M134" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="135" spans="13:13">
       <c r="M135" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="136" spans="13:13">
       <c r="M136" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="137" spans="13:13">
       <c r="M137" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="138" spans="13:13">
       <c r="M138" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="139" spans="13:13">
       <c r="M139" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="140" spans="13:13">
       <c r="M140" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" spans="13:13">
       <c r="M141" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="142" spans="13:13">
       <c r="M142" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="143" spans="13:13">
       <c r="M143" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="144" spans="13:13">
       <c r="M144" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="145" spans="13:13">
       <c r="M145" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="146" spans="13:13">
       <c r="M146" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="13:13">
       <c r="M147" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="148" spans="13:13">
       <c r="M148" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="13:13">
       <c r="M149" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="150" spans="13:13">
       <c r="M150" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="151" spans="13:13">
       <c r="M151" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="152" spans="13:13">
       <c r="M152" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="153" spans="13:13">
       <c r="M153" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="154" spans="13:13">
       <c r="M154" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="155" spans="13:13">
       <c r="M155" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="156" spans="13:13">
       <c r="M156" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="157" spans="13:13">
       <c r="M157" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" spans="13:13">
       <c r="M158" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="159" spans="13:13">
       <c r="M159" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="160" spans="13:13">
       <c r="M160" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="161" spans="13:13">
       <c r="M161" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="162" spans="13:13">
       <c r="M162" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="163" spans="13:13">
       <c r="M163" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="13:13">
       <c r="M164" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="165" spans="13:13">
       <c r="M165" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="166" spans="13:13">
       <c r="M166" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="167" spans="13:13">
       <c r="M167" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="168" spans="13:13">
       <c r="M168" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="169" spans="13:13">
       <c r="M169" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="170" spans="13:13">
       <c r="M170" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="171" spans="13:13">
       <c r="M171" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="172" spans="13:13">
       <c r="M172" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="173" spans="13:13">
       <c r="M173" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="174" spans="13:13">
       <c r="M174" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="175" spans="13:13">
       <c r="M175" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="176" spans="13:13">
       <c r="M176" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="177" spans="13:13">
       <c r="M177" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="178" spans="13:13">
       <c r="M178" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="179" spans="13:13">
       <c r="M179" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="180" spans="13:13">
       <c r="M180" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="13:13">
       <c r="M181" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="182" spans="13:13">
       <c r="M182" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="183" spans="13:13">
       <c r="M183" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="184" spans="13:13">
       <c r="M184" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="185" spans="13:13">
       <c r="M185" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="186" spans="13:13">
       <c r="M186" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="187" spans="13:13">
       <c r="M187" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="188" spans="13:13">
       <c r="M188" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="189" spans="13:13">
       <c r="M189" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="190" spans="13:13">
       <c r="M190" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="191" spans="13:13">
       <c r="M191" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="192" spans="13:13">
       <c r="M192" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="193" spans="13:13">
       <c r="M193" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="194" spans="13:13">
       <c r="M194" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="195" spans="13:13">
       <c r="M195" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="196" spans="13:13">
       <c r="M196" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="197" spans="13:13">
       <c r="M197" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="198" spans="13:13">
       <c r="M198" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="199" spans="13:13">
       <c r="M199" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="200" spans="13:13">
       <c r="M200" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="201" spans="13:13">
       <c r="M201" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="202" spans="13:13">
       <c r="M202" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="203" spans="13:13">
       <c r="M203" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="204" spans="13:13">
       <c r="M204" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="205" spans="13:13">
       <c r="M205" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="206" spans="13:13">
       <c r="M206" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="207" spans="13:13">
       <c r="M207" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="208" spans="13:13">
       <c r="M208" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="209" spans="13:13">
       <c r="M209" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" spans="13:13">
       <c r="M210" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="211" spans="13:13">
       <c r="M211" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="212" spans="13:13">
       <c r="M212" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="213" spans="13:13">
       <c r="M213" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="214" spans="13:13">
       <c r="M214" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="215" spans="13:13">
       <c r="M215" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="216" spans="13:13">
       <c r="M216" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="217" spans="13:13">
       <c r="M217" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="218" spans="13:13">
       <c r="M218" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="219" spans="13:13">
       <c r="M219" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="220" spans="13:13">
       <c r="M220" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="221" spans="13:13">
       <c r="M221" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="222" spans="13:13">
       <c r="M222" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="223" spans="13:13">
       <c r="M223" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="224" spans="13:13">
       <c r="M224" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="225" spans="13:13">
       <c r="M225" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="226" spans="13:13">
       <c r="M226" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="227" spans="13:13">
       <c r="M227" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="228" spans="13:13">
       <c r="M228" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="229" spans="13:13">
       <c r="M229" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="230" spans="13:13">
       <c r="M230" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="231" spans="13:13">
       <c r="M231" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="232" spans="13:13">
       <c r="M232" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="233" spans="13:13">
       <c r="M233" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="234" spans="13:13">
       <c r="M234" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="235" spans="13:13">
       <c r="M235" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="236" spans="13:13">
       <c r="M236" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="237" spans="13:13">
       <c r="M237" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="238" spans="13:13">
       <c r="M238" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="239" spans="13:13">
       <c r="M239" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="240" spans="13:13">
       <c r="M240" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="241" spans="13:13">
       <c r="M241" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="242" spans="13:13">
       <c r="M242" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="243" spans="13:13">
       <c r="M243" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="244" spans="13:13">
       <c r="M244" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="245" spans="13:13">
       <c r="M245" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="246" spans="13:13">
       <c r="M246" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="247" spans="13:13">
       <c r="M247" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="248" spans="13:13">
       <c r="M248" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="249" spans="13:13">
       <c r="M249" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="250" spans="13:13">
       <c r="M250" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="251" spans="13:13">
       <c r="M251" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="252" spans="13:13">
       <c r="M252" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="253" spans="13:13">
       <c r="M253" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="254" spans="13:13">
       <c r="M254" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="255" spans="13:13">
       <c r="M255" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="256" spans="13:13">
       <c r="M256" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="257" spans="13:13">
       <c r="M257" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="258" spans="13:13">
       <c r="M258" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="259" spans="13:13">
       <c r="M259" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="260" spans="13:13">
       <c r="M260" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="261" spans="13:13">
       <c r="M261" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="262" spans="13:13">
       <c r="M262" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="263" spans="13:13">
       <c r="M263" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="264" spans="13:13">
       <c r="M264" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="265" spans="13:13">
       <c r="M265" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="266" spans="13:13">
       <c r="M266" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="267" spans="13:13">
       <c r="M267" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="268" spans="13:13">
       <c r="M268" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="269" spans="13:13">
       <c r="M269" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="270" spans="13:13">
       <c r="M270" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="271" spans="13:13">
       <c r="M271" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="272" spans="13:13">
       <c r="M272" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="273" spans="13:13">
       <c r="M273" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="274" spans="13:13">
       <c r="M274" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="275" spans="13:13">
       <c r="M275" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="276" spans="13:13">
       <c r="M276" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="277" spans="13:13">
       <c r="M277" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="278" spans="13:13">
       <c r="M278" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="279" spans="13:13">
       <c r="M279" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="280" spans="13:13">
       <c r="M280" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="281" spans="13:13">
       <c r="M281" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="282" spans="13:13">
       <c r="M282" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="283" spans="13:13">
       <c r="M283" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="284" spans="13:13">
       <c r="M284" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="285" spans="13:13">
       <c r="M285" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="286" spans="13:13">
       <c r="M286" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="13:13">
       <c r="M287" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="288" spans="13:13">
       <c r="M288" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="13:13">
       <c r="M289" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -21,7 +21,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$N$1:$N$14</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="602">
   <si>
     <t>alias</t>
   </si>
@@ -720,6 +720,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2374,7 +2377,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2418,7 +2421,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2448,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3167,6 +3170,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3191,27 +3199,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3234,122 +3242,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3376,144 +3384,144 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -3542,1495 +3550,1495 @@
   <sheetData>
     <row r="1" spans="11:14">
       <c r="K1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="11:14">
       <c r="K2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="11:14">
       <c r="M3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="11:14">
       <c r="M4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="11:14">
       <c r="M5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="11:14">
       <c r="M6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="11:14">
       <c r="M7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="11:14">
       <c r="M8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="11:14">
       <c r="M9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="11:14">
       <c r="M10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="11:14">
       <c r="M11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="11:14">
       <c r="M12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N12" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="11:14">
       <c r="M13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="11:14">
       <c r="M14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N14" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="11:14">
       <c r="M15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="11:14">
       <c r="M16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="13:13">
       <c r="M17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="13:13">
       <c r="M18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="13:13">
       <c r="M19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="13:13">
       <c r="M20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="13:13">
       <c r="M21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="13:13">
       <c r="M23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="13:13">
       <c r="M24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="13:13">
       <c r="M25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="13:13">
       <c r="M26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="13:13">
       <c r="M27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="13:13">
       <c r="M28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="13:13">
       <c r="M29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="13:13">
       <c r="M30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="13:13">
       <c r="M31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="13:13">
       <c r="M32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="13:13">
       <c r="M33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="13:13">
       <c r="M34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="13:13">
       <c r="M35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="13:13">
       <c r="M36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="13:13">
       <c r="M37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="13:13">
       <c r="M38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="13:13">
       <c r="M39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="13:13">
       <c r="M40" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="13:13">
       <c r="M41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="13:13">
       <c r="M42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="13:13">
       <c r="M43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="13:13">
       <c r="M44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="13:13">
       <c r="M45" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="13:13">
       <c r="M46" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="13:13">
       <c r="M47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="13:13">
       <c r="M48" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="13:13">
       <c r="M49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="13:13">
       <c r="M50" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="13:13">
       <c r="M51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="13:13">
       <c r="M52" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="13:13">
       <c r="M53" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="13:13">
       <c r="M54" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="13:13">
       <c r="M55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="13:13">
       <c r="M56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="13:13">
       <c r="M57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="13:13">
       <c r="M58" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="13:13">
       <c r="M60" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="13:13">
       <c r="M61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="13:13">
       <c r="M62" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="13:13">
       <c r="M63" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="13:13">
       <c r="M64" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="13:13">
       <c r="M65" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="13:13">
       <c r="M66" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="13:13">
       <c r="M67" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="13:13">
       <c r="M68" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="13:13">
       <c r="M69" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="13:13">
       <c r="M70" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="13:13">
       <c r="M71" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="13:13">
       <c r="M72" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="13:13">
       <c r="M73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="13:13">
       <c r="M74" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="13:13">
       <c r="M75" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="13:13">
       <c r="M76" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="13:13">
       <c r="M77" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="13:13">
       <c r="M78" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="13:13">
       <c r="M79" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="13:13">
       <c r="M80" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="13:13">
       <c r="M81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="13:13">
       <c r="M82" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="13:13">
       <c r="M83" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="13:13">
       <c r="M84" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="13:13">
       <c r="M85" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="13:13">
       <c r="M86" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="13:13">
       <c r="M87" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="13:13">
       <c r="M88" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="13:13">
       <c r="M89" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="13:13">
       <c r="M90" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="13:13">
       <c r="M91" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="13:13">
       <c r="M92" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="13:13">
       <c r="M93" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="13:13">
       <c r="M94" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="13:13">
       <c r="M95" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="13:13">
       <c r="M96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="13:13">
       <c r="M97" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="13:13">
       <c r="M98" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="13:13">
       <c r="M99" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="13:13">
       <c r="M100" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="13:13">
       <c r="M101" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="13:13">
       <c r="M102" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="13:13">
       <c r="M103" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="13:13">
       <c r="M104" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="105" spans="13:13">
       <c r="M105" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="13:13">
       <c r="M106" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="13:13">
       <c r="M107" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="13:13">
       <c r="M108" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="13:13">
       <c r="M109" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" spans="13:13">
       <c r="M110" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="13:13">
       <c r="M111" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="13:13">
       <c r="M112" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="113" spans="13:13">
       <c r="M113" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="13:13">
       <c r="M114" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="13:13">
       <c r="M115" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="13:13">
       <c r="M116" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="13:13">
       <c r="M117" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" spans="13:13">
       <c r="M118" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="119" spans="13:13">
       <c r="M119" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="120" spans="13:13">
       <c r="M120" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="121" spans="13:13">
       <c r="M121" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="122" spans="13:13">
       <c r="M122" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="123" spans="13:13">
       <c r="M123" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="13:13">
       <c r="M124" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="125" spans="13:13">
       <c r="M125" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="13:13">
       <c r="M126" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="13:13">
       <c r="M127" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="128" spans="13:13">
       <c r="M128" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="129" spans="13:13">
       <c r="M129" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="130" spans="13:13">
       <c r="M130" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="13:13">
       <c r="M131" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" spans="13:13">
       <c r="M132" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="133" spans="13:13">
       <c r="M133" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" spans="13:13">
       <c r="M134" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="135" spans="13:13">
       <c r="M135" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="136" spans="13:13">
       <c r="M136" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="137" spans="13:13">
       <c r="M137" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138" spans="13:13">
       <c r="M138" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="139" spans="13:13">
       <c r="M139" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" spans="13:13">
       <c r="M140" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="141" spans="13:13">
       <c r="M141" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="142" spans="13:13">
       <c r="M142" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="143" spans="13:13">
       <c r="M143" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144" spans="13:13">
       <c r="M144" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="145" spans="13:13">
       <c r="M145" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="146" spans="13:13">
       <c r="M146" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="147" spans="13:13">
       <c r="M147" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="148" spans="13:13">
       <c r="M148" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="149" spans="13:13">
       <c r="M149" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" spans="13:13">
       <c r="M150" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="13:13">
       <c r="M151" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="152" spans="13:13">
       <c r="M152" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="153" spans="13:13">
       <c r="M153" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="154" spans="13:13">
       <c r="M154" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="155" spans="13:13">
       <c r="M155" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="156" spans="13:13">
       <c r="M156" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="157" spans="13:13">
       <c r="M157" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="158" spans="13:13">
       <c r="M158" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="159" spans="13:13">
       <c r="M159" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="160" spans="13:13">
       <c r="M160" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="161" spans="13:13">
       <c r="M161" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="162" spans="13:13">
       <c r="M162" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="163" spans="13:13">
       <c r="M163" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="164" spans="13:13">
       <c r="M164" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="165" spans="13:13">
       <c r="M165" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="166" spans="13:13">
       <c r="M166" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="13:13">
       <c r="M167" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="13:13">
       <c r="M168" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="13:13">
       <c r="M169" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="170" spans="13:13">
       <c r="M170" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="13:13">
       <c r="M171" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="172" spans="13:13">
       <c r="M172" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="173" spans="13:13">
       <c r="M173" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174" spans="13:13">
       <c r="M174" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="13:13">
       <c r="M175" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="13:13">
       <c r="M176" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="177" spans="13:13">
       <c r="M177" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="178" spans="13:13">
       <c r="M178" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="13:13">
       <c r="M179" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="13:13">
       <c r="M180" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="13:13">
       <c r="M181" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="13:13">
       <c r="M182" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="183" spans="13:13">
       <c r="M183" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="184" spans="13:13">
       <c r="M184" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="185" spans="13:13">
       <c r="M185" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="186" spans="13:13">
       <c r="M186" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="187" spans="13:13">
       <c r="M187" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="188" spans="13:13">
       <c r="M188" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="189" spans="13:13">
       <c r="M189" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="190" spans="13:13">
       <c r="M190" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="191" spans="13:13">
       <c r="M191" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="13:13">
       <c r="M192" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="193" spans="13:13">
       <c r="M193" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="194" spans="13:13">
       <c r="M194" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="195" spans="13:13">
       <c r="M195" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="196" spans="13:13">
       <c r="M196" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="197" spans="13:13">
       <c r="M197" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="198" spans="13:13">
       <c r="M198" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="199" spans="13:13">
       <c r="M199" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="200" spans="13:13">
       <c r="M200" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="201" spans="13:13">
       <c r="M201" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="202" spans="13:13">
       <c r="M202" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="203" spans="13:13">
       <c r="M203" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="204" spans="13:13">
       <c r="M204" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="205" spans="13:13">
       <c r="M205" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="206" spans="13:13">
       <c r="M206" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="207" spans="13:13">
       <c r="M207" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="208" spans="13:13">
       <c r="M208" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="209" spans="13:13">
       <c r="M209" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="210" spans="13:13">
       <c r="M210" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="211" spans="13:13">
       <c r="M211" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="212" spans="13:13">
       <c r="M212" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="213" spans="13:13">
       <c r="M213" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="214" spans="13:13">
       <c r="M214" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="215" spans="13:13">
       <c r="M215" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="216" spans="13:13">
       <c r="M216" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="217" spans="13:13">
       <c r="M217" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="218" spans="13:13">
       <c r="M218" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="219" spans="13:13">
       <c r="M219" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="220" spans="13:13">
       <c r="M220" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="221" spans="13:13">
       <c r="M221" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="222" spans="13:13">
       <c r="M222" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="223" spans="13:13">
       <c r="M223" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="224" spans="13:13">
       <c r="M224" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="225" spans="13:13">
       <c r="M225" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="226" spans="13:13">
       <c r="M226" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="227" spans="13:13">
       <c r="M227" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="228" spans="13:13">
       <c r="M228" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="229" spans="13:13">
       <c r="M229" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="230" spans="13:13">
       <c r="M230" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="231" spans="13:13">
       <c r="M231" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="232" spans="13:13">
       <c r="M232" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="233" spans="13:13">
       <c r="M233" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="234" spans="13:13">
       <c r="M234" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="235" spans="13:13">
       <c r="M235" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="236" spans="13:13">
       <c r="M236" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="237" spans="13:13">
       <c r="M237" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="238" spans="13:13">
       <c r="M238" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="239" spans="13:13">
       <c r="M239" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="240" spans="13:13">
       <c r="M240" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="241" spans="13:13">
       <c r="M241" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="242" spans="13:13">
       <c r="M242" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="243" spans="13:13">
       <c r="M243" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="244" spans="13:13">
       <c r="M244" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="245" spans="13:13">
       <c r="M245" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="246" spans="13:13">
       <c r="M246" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="247" spans="13:13">
       <c r="M247" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="248" spans="13:13">
       <c r="M248" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="249" spans="13:13">
       <c r="M249" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="250" spans="13:13">
       <c r="M250" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="251" spans="13:13">
       <c r="M251" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="252" spans="13:13">
       <c r="M252" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="253" spans="13:13">
       <c r="M253" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="254" spans="13:13">
       <c r="M254" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="255" spans="13:13">
       <c r="M255" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="256" spans="13:13">
       <c r="M256" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="257" spans="13:13">
       <c r="M257" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="258" spans="13:13">
       <c r="M258" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="259" spans="13:13">
       <c r="M259" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="260" spans="13:13">
       <c r="M260" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="261" spans="13:13">
       <c r="M261" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="262" spans="13:13">
       <c r="M262" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="263" spans="13:13">
       <c r="M263" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="264" spans="13:13">
       <c r="M264" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="265" spans="13:13">
       <c r="M265" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="266" spans="13:13">
       <c r="M266" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="267" spans="13:13">
       <c r="M267" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="268" spans="13:13">
       <c r="M268" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="269" spans="13:13">
       <c r="M269" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="270" spans="13:13">
       <c r="M270" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="271" spans="13:13">
       <c r="M271" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="272" spans="13:13">
       <c r="M272" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="273" spans="13:13">
       <c r="M273" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="274" spans="13:13">
       <c r="M274" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="275" spans="13:13">
       <c r="M275" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="276" spans="13:13">
       <c r="M276" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="277" spans="13:13">
       <c r="M277" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="278" spans="13:13">
       <c r="M278" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="279" spans="13:13">
       <c r="M279" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="280" spans="13:13">
       <c r="M280" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="281" spans="13:13">
       <c r="M281" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="13:13">
       <c r="M282" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="283" spans="13:13">
       <c r="M283" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="284" spans="13:13">
       <c r="M284" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="285" spans="13:13">
       <c r="M285" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="13:13">
       <c r="M286" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="287" spans="13:13">
       <c r="M287" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="13:13">
       <c r="M288" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="289" spans="13:13">
       <c r="M289" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -21,7 +21,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$N$1:$N$14</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="603">
   <si>
     <t>alias</t>
   </si>
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2377,7 +2380,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2421,7 +2424,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2451,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3175,6 +3178,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3199,27 +3207,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3242,122 +3250,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3384,144 +3392,144 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -3550,1495 +3558,1495 @@
   <sheetData>
     <row r="1" spans="11:14">
       <c r="K1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="11:14">
       <c r="K2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="11:14">
       <c r="M3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="11:14">
       <c r="M4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="11:14">
       <c r="M5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="11:14">
       <c r="M6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="11:14">
       <c r="M7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="11:14">
       <c r="M8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="11:14">
       <c r="M9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="11:14">
       <c r="M10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="11:14">
       <c r="M11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N11" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="11:14">
       <c r="M12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N12" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="11:14">
       <c r="M13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="11:14">
       <c r="M14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N14" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="11:14">
       <c r="M15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="11:14">
       <c r="M16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="13:13">
       <c r="M17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="13:13">
       <c r="M18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="13:13">
       <c r="M19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="13:13">
       <c r="M20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="13:13">
       <c r="M21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="13:13">
       <c r="M23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="13:13">
       <c r="M24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="13:13">
       <c r="M25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="13:13">
       <c r="M26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="13:13">
       <c r="M27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="13:13">
       <c r="M28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="13:13">
       <c r="M29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="13:13">
       <c r="M30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="13:13">
       <c r="M31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="13:13">
       <c r="M32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="13:13">
       <c r="M33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="13:13">
       <c r="M34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="13:13">
       <c r="M35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="13:13">
       <c r="M36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="13:13">
       <c r="M37" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="13:13">
       <c r="M38" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="13:13">
       <c r="M39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="13:13">
       <c r="M40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="13:13">
       <c r="M41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="13:13">
       <c r="M42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="13:13">
       <c r="M43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="13:13">
       <c r="M44" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="13:13">
       <c r="M45" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="13:13">
       <c r="M46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="13:13">
       <c r="M47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="13:13">
       <c r="M48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="13:13">
       <c r="M49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="13:13">
       <c r="M50" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="13:13">
       <c r="M51" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="13:13">
       <c r="M52" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="13:13">
       <c r="M53" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="13:13">
       <c r="M54" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="13:13">
       <c r="M55" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="13:13">
       <c r="M56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="13:13">
       <c r="M57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="13:13">
       <c r="M58" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="13:13">
       <c r="M60" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="13:13">
       <c r="M61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="13:13">
       <c r="M62" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="13:13">
       <c r="M63" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="13:13">
       <c r="M64" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="13:13">
       <c r="M65" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="13:13">
       <c r="M66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="13:13">
       <c r="M67" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="13:13">
       <c r="M68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="13:13">
       <c r="M69" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="13:13">
       <c r="M70" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="13:13">
       <c r="M71" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="13:13">
       <c r="M72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="13:13">
       <c r="M73" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="13:13">
       <c r="M74" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="13:13">
       <c r="M75" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="13:13">
       <c r="M76" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="13:13">
       <c r="M77" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="13:13">
       <c r="M78" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="13:13">
       <c r="M79" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80" spans="13:13">
       <c r="M80" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="13:13">
       <c r="M81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="13:13">
       <c r="M82" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="13:13">
       <c r="M83" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="13:13">
       <c r="M84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="13:13">
       <c r="M85" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="13:13">
       <c r="M86" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="87" spans="13:13">
       <c r="M87" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="88" spans="13:13">
       <c r="M88" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="13:13">
       <c r="M89" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="90" spans="13:13">
       <c r="M90" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="13:13">
       <c r="M91" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="13:13">
       <c r="M92" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="13:13">
       <c r="M93" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="13:13">
       <c r="M94" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="13:13">
       <c r="M95" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="13:13">
       <c r="M96" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="13:13">
       <c r="M97" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="13:13">
       <c r="M98" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="13:13">
       <c r="M99" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="100" spans="13:13">
       <c r="M100" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="13:13">
       <c r="M101" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="13:13">
       <c r="M102" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="13:13">
       <c r="M103" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="13:13">
       <c r="M104" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="13:13">
       <c r="M105" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="13:13">
       <c r="M106" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="13:13">
       <c r="M107" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" spans="13:13">
       <c r="M108" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="13:13">
       <c r="M109" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="13:13">
       <c r="M110" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="13:13">
       <c r="M111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="13:13">
       <c r="M112" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="13:13">
       <c r="M113" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="13:13">
       <c r="M114" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="13:13">
       <c r="M115" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="13:13">
       <c r="M116" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="117" spans="13:13">
       <c r="M117" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="118" spans="13:13">
       <c r="M118" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119" spans="13:13">
       <c r="M119" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="13:13">
       <c r="M120" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="121" spans="13:13">
       <c r="M121" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="122" spans="13:13">
       <c r="M122" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="123" spans="13:13">
       <c r="M123" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" spans="13:13">
       <c r="M124" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="125" spans="13:13">
       <c r="M125" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="126" spans="13:13">
       <c r="M126" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="127" spans="13:13">
       <c r="M127" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="13:13">
       <c r="M128" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="129" spans="13:13">
       <c r="M129" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" spans="13:13">
       <c r="M130" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="131" spans="13:13">
       <c r="M131" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" spans="13:13">
       <c r="M132" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="13:13">
       <c r="M133" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="13:13">
       <c r="M134" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="135" spans="13:13">
       <c r="M135" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="136" spans="13:13">
       <c r="M136" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="13:13">
       <c r="M137" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="13:13">
       <c r="M138" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" spans="13:13">
       <c r="M139" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" spans="13:13">
       <c r="M140" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="141" spans="13:13">
       <c r="M141" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="142" spans="13:13">
       <c r="M142" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" spans="13:13">
       <c r="M143" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="144" spans="13:13">
       <c r="M144" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="145" spans="13:13">
       <c r="M145" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="146" spans="13:13">
       <c r="M146" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="147" spans="13:13">
       <c r="M147" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="13:13">
       <c r="M148" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="13:13">
       <c r="M149" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="13:13">
       <c r="M150" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="151" spans="13:13">
       <c r="M151" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="152" spans="13:13">
       <c r="M152" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="153" spans="13:13">
       <c r="M153" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="154" spans="13:13">
       <c r="M154" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="155" spans="13:13">
       <c r="M155" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="13:13">
       <c r="M156" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="157" spans="13:13">
       <c r="M157" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="158" spans="13:13">
       <c r="M158" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" spans="13:13">
       <c r="M159" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="160" spans="13:13">
       <c r="M160" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="13:13">
       <c r="M161" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="162" spans="13:13">
       <c r="M162" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="163" spans="13:13">
       <c r="M163" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="164" spans="13:13">
       <c r="M164" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="13:13">
       <c r="M165" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="13:13">
       <c r="M166" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="13:13">
       <c r="M167" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="168" spans="13:13">
       <c r="M168" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="169" spans="13:13">
       <c r="M169" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="170" spans="13:13">
       <c r="M170" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="171" spans="13:13">
       <c r="M171" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="172" spans="13:13">
       <c r="M172" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="173" spans="13:13">
       <c r="M173" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="174" spans="13:13">
       <c r="M174" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="175" spans="13:13">
       <c r="M175" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="176" spans="13:13">
       <c r="M176" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="13:13">
       <c r="M177" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="13:13">
       <c r="M178" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="13:13">
       <c r="M179" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="180" spans="13:13">
       <c r="M180" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="181" spans="13:13">
       <c r="M181" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="182" spans="13:13">
       <c r="M182" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="183" spans="13:13">
       <c r="M183" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="184" spans="13:13">
       <c r="M184" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="185" spans="13:13">
       <c r="M185" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="186" spans="13:13">
       <c r="M186" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="187" spans="13:13">
       <c r="M187" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="188" spans="13:13">
       <c r="M188" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="189" spans="13:13">
       <c r="M189" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="190" spans="13:13">
       <c r="M190" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="191" spans="13:13">
       <c r="M191" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="192" spans="13:13">
       <c r="M192" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="193" spans="13:13">
       <c r="M193" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="194" spans="13:13">
       <c r="M194" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="195" spans="13:13">
       <c r="M195" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="196" spans="13:13">
       <c r="M196" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="197" spans="13:13">
       <c r="M197" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="198" spans="13:13">
       <c r="M198" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="199" spans="13:13">
       <c r="M199" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="200" spans="13:13">
       <c r="M200" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="201" spans="13:13">
       <c r="M201" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="202" spans="13:13">
       <c r="M202" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="203" spans="13:13">
       <c r="M203" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="204" spans="13:13">
       <c r="M204" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="205" spans="13:13">
       <c r="M205" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="206" spans="13:13">
       <c r="M206" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="207" spans="13:13">
       <c r="M207" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="208" spans="13:13">
       <c r="M208" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="209" spans="13:13">
       <c r="M209" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="210" spans="13:13">
       <c r="M210" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="211" spans="13:13">
       <c r="M211" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="212" spans="13:13">
       <c r="M212" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="213" spans="13:13">
       <c r="M213" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="214" spans="13:13">
       <c r="M214" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="215" spans="13:13">
       <c r="M215" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="216" spans="13:13">
       <c r="M216" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="217" spans="13:13">
       <c r="M217" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="218" spans="13:13">
       <c r="M218" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="219" spans="13:13">
       <c r="M219" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="220" spans="13:13">
       <c r="M220" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="221" spans="13:13">
       <c r="M221" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="222" spans="13:13">
       <c r="M222" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="223" spans="13:13">
       <c r="M223" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="224" spans="13:13">
       <c r="M224" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="225" spans="13:13">
       <c r="M225" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="226" spans="13:13">
       <c r="M226" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="227" spans="13:13">
       <c r="M227" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="228" spans="13:13">
       <c r="M228" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="229" spans="13:13">
       <c r="M229" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="230" spans="13:13">
       <c r="M230" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="231" spans="13:13">
       <c r="M231" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="232" spans="13:13">
       <c r="M232" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="233" spans="13:13">
       <c r="M233" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="234" spans="13:13">
       <c r="M234" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="235" spans="13:13">
       <c r="M235" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="236" spans="13:13">
       <c r="M236" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="237" spans="13:13">
       <c r="M237" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="238" spans="13:13">
       <c r="M238" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="239" spans="13:13">
       <c r="M239" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="240" spans="13:13">
       <c r="M240" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="241" spans="13:13">
       <c r="M241" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="242" spans="13:13">
       <c r="M242" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="243" spans="13:13">
       <c r="M243" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="244" spans="13:13">
       <c r="M244" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="245" spans="13:13">
       <c r="M245" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="246" spans="13:13">
       <c r="M246" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="247" spans="13:13">
       <c r="M247" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="248" spans="13:13">
       <c r="M248" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="249" spans="13:13">
       <c r="M249" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="250" spans="13:13">
       <c r="M250" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="251" spans="13:13">
       <c r="M251" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="252" spans="13:13">
       <c r="M252" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="253" spans="13:13">
       <c r="M253" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="254" spans="13:13">
       <c r="M254" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="255" spans="13:13">
       <c r="M255" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="256" spans="13:13">
       <c r="M256" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="257" spans="13:13">
       <c r="M257" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="258" spans="13:13">
       <c r="M258" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="259" spans="13:13">
       <c r="M259" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="260" spans="13:13">
       <c r="M260" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="261" spans="13:13">
       <c r="M261" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="262" spans="13:13">
       <c r="M262" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="263" spans="13:13">
       <c r="M263" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="264" spans="13:13">
       <c r="M264" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="265" spans="13:13">
       <c r="M265" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="266" spans="13:13">
       <c r="M266" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="267" spans="13:13">
       <c r="M267" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="268" spans="13:13">
       <c r="M268" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="269" spans="13:13">
       <c r="M269" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="270" spans="13:13">
       <c r="M270" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="271" spans="13:13">
       <c r="M271" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="272" spans="13:13">
       <c r="M272" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="273" spans="13:13">
       <c r="M273" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="274" spans="13:13">
       <c r="M274" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="275" spans="13:13">
       <c r="M275" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="276" spans="13:13">
       <c r="M276" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="277" spans="13:13">
       <c r="M277" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="278" spans="13:13">
       <c r="M278" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="279" spans="13:13">
       <c r="M279" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="280" spans="13:13">
       <c r="M280" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="281" spans="13:13">
       <c r="M281" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="282" spans="13:13">
       <c r="M282" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="283" spans="13:13">
       <c r="M283" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="284" spans="13:13">
       <c r="M284" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="13:13">
       <c r="M285" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="286" spans="13:13">
       <c r="M286" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="13:13">
       <c r="M287" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="288" spans="13:13">
       <c r="M288" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="289" spans="13:13">
       <c r="M289" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalsample">'cv_sample'!$K$1:$K$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$294</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$N$1:$N$14</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="608">
   <si>
     <t>alias</t>
   </si>
@@ -863,13 +863,13 @@
     <t>(Optional) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
@@ -1112,9 +1112,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1133,6 +1130,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1334,6 +1334,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1343,9 +1346,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1385,7 +1385,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1454,6 +1454,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1529,6 +1532,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1550,6 +1556,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1595,6 +1604,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1607,6 +1619,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1616,9 +1631,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1643,6 +1655,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1703,12 +1718,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1766,7 +1781,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1778,7 +1793,7 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>host health state</t>
+    <t>host_health_state</t>
   </si>
   <si>
     <t>(Mandatory) Health status of the host at the time of sample collection.</t>
@@ -1790,7 +1805,7 @@
     <t>(Optional) Scientific name of the laboratory host used to propagate the source organism from which the sample was obtained</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Mandatory) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
@@ -3422,40 +3437,40 @@
         <v>286</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
@@ -3496,40 +3511,40 @@
         <v>287</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -3550,7 +3565,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:N289"/>
+  <dimension ref="K1:N294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3564,7 +3579,7 @@
         <v>288</v>
       </c>
       <c r="N1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="11:14">
@@ -3575,7 +3590,7 @@
         <v>289</v>
       </c>
       <c r="N2" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="11:14">
@@ -3583,7 +3598,7 @@
         <v>290</v>
       </c>
       <c r="N3" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="11:14">
@@ -3591,7 +3606,7 @@
         <v>291</v>
       </c>
       <c r="N4" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="11:14">
@@ -3599,7 +3614,7 @@
         <v>292</v>
       </c>
       <c r="N5" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="11:14">
@@ -3607,7 +3622,7 @@
         <v>293</v>
       </c>
       <c r="N6" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="11:14">
@@ -3615,7 +3630,7 @@
         <v>294</v>
       </c>
       <c r="N7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="11:14">
@@ -3623,7 +3638,7 @@
         <v>295</v>
       </c>
       <c r="N8" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="11:14">
@@ -3631,7 +3646,7 @@
         <v>296</v>
       </c>
       <c r="N9" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="11:14">
@@ -3639,7 +3654,7 @@
         <v>297</v>
       </c>
       <c r="N10" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="11:14">
@@ -3647,7 +3662,7 @@
         <v>298</v>
       </c>
       <c r="N11" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="11:14">
@@ -3655,7 +3670,7 @@
         <v>299</v>
       </c>
       <c r="N12" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="11:14">
@@ -3663,7 +3678,7 @@
         <v>300</v>
       </c>
       <c r="N13" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="11:14">
@@ -3671,7 +3686,7 @@
         <v>301</v>
       </c>
       <c r="N14" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="11:14">
@@ -5047,6 +5062,31 @@
     <row r="289" spans="13:13">
       <c r="M289" t="s">
         <v>576</v>
+      </c>
+    </row>
+    <row r="290" spans="13:13">
+      <c r="M290" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="291" spans="13:13">
+      <c r="M291" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="292" spans="13:13">
+      <c r="M292" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="293" spans="13:13">
+      <c r="M293" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="294" spans="13:13">
+      <c r="M294" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalsample">'cv_sample'!$K$1:$K$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$N$1:$N$14</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="603">
   <si>
     <t>alias</t>
   </si>
@@ -863,13 +863,13 @@
     <t>(Optional) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
@@ -1112,6 +1112,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1130,9 +1133,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1334,9 +1334,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1346,6 +1343,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1385,7 +1385,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1454,9 +1454,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1532,9 +1529,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1556,9 +1550,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1604,9 +1595,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1619,9 +1607,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1631,6 +1616,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1655,9 +1643,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1718,12 +1703,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1781,7 +1766,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1793,7 +1778,7 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>host_health_state</t>
+    <t>host health state</t>
   </si>
   <si>
     <t>(Mandatory) Health status of the host at the time of sample collection.</t>
@@ -1805,7 +1790,7 @@
     <t>(Optional) Scientific name of the laboratory host used to propagate the source organism from which the sample was obtained</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Mandatory) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
@@ -3437,40 +3422,40 @@
         <v>286</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
@@ -3511,40 +3496,40 @@
         <v>287</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -3565,7 +3550,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:N294"/>
+  <dimension ref="K1:N289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3579,7 +3564,7 @@
         <v>288</v>
       </c>
       <c r="N1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="11:14">
@@ -3590,7 +3575,7 @@
         <v>289</v>
       </c>
       <c r="N2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="11:14">
@@ -3598,7 +3583,7 @@
         <v>290</v>
       </c>
       <c r="N3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="11:14">
@@ -3606,7 +3591,7 @@
         <v>291</v>
       </c>
       <c r="N4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="11:14">
@@ -3614,7 +3599,7 @@
         <v>292</v>
       </c>
       <c r="N5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="11:14">
@@ -3622,7 +3607,7 @@
         <v>293</v>
       </c>
       <c r="N6" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="11:14">
@@ -3630,7 +3615,7 @@
         <v>294</v>
       </c>
       <c r="N7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="11:14">
@@ -3638,7 +3623,7 @@
         <v>295</v>
       </c>
       <c r="N8" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="11:14">
@@ -3646,7 +3631,7 @@
         <v>296</v>
       </c>
       <c r="N9" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="11:14">
@@ -3654,7 +3639,7 @@
         <v>297</v>
       </c>
       <c r="N10" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="11:14">
@@ -3662,7 +3647,7 @@
         <v>298</v>
       </c>
       <c r="N11" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="11:14">
@@ -3670,7 +3655,7 @@
         <v>299</v>
       </c>
       <c r="N12" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="11:14">
@@ -3678,7 +3663,7 @@
         <v>300</v>
       </c>
       <c r="N13" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="11:14">
@@ -3686,7 +3671,7 @@
         <v>301</v>
       </c>
       <c r="N14" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="11:14">
@@ -5062,31 +5047,6 @@
     <row r="289" spans="13:13">
       <c r="M289" t="s">
         <v>576</v>
-      </c>
-    </row>
-    <row r="290" spans="13:13">
-      <c r="M290" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="291" spans="13:13">
-      <c r="M291" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="292" spans="13:13">
-      <c r="M292" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="293" spans="13:13">
-      <c r="M293" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="294" spans="13:13">
-      <c r="M294" t="s">
-        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -17,10 +17,10 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="environmentalsample">'cv_sample'!$K$1:$K$2</definedName>
+    <definedName name="environmentalsample">'cv_sample'!$M$1:$M$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
-    <definedName name="hosthealthstate">'cv_sample'!$N$1:$N$14</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
+    <definedName name="hosthealthstate">'cv_sample'!$P$1:$P$14</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="607">
   <si>
     <t>alias</t>
   </si>
@@ -837,6 +837,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3375,7 +3387,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3384,7 +3396,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3416,19 +3428,19 @@
         <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>577</v>
+        <v>288</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>585</v>
@@ -3457,8 +3469,14 @@
       <c r="X1" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="150" customHeight="1">
+      <c r="Y1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3490,19 +3508,19 @@
         <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>578</v>
+        <v>289</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>586</v>
@@ -3531,16 +3549,22 @@
       <c r="X2" s="2" t="s">
         <v>602</v>
       </c>
+      <c r="Y2" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>606</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
       <formula1>environmentalsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
       <formula1>hosthealthstate</formula1>
     </dataValidation>
   </dataValidations>
@@ -3550,1503 +3574,1503 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:N289"/>
+  <dimension ref="M1:P289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="11:14">
-      <c r="K1" t="s">
-        <v>282</v>
-      </c>
+    <row r="1" spans="13:16">
       <c r="M1" t="s">
-        <v>288</v>
-      </c>
-      <c r="N1" t="s">
+        <v>286</v>
+      </c>
+      <c r="O1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="13:16">
+      <c r="M2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O2" t="s">
+        <v>293</v>
+      </c>
+      <c r="P2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="13:16">
+      <c r="O3" t="s">
+        <v>294</v>
+      </c>
+      <c r="P3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="4" spans="13:16">
+      <c r="O4" t="s">
+        <v>295</v>
+      </c>
+      <c r="P4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="13:16">
+      <c r="O5" t="s">
+        <v>296</v>
+      </c>
+      <c r="P5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="6" spans="13:16">
+      <c r="O6" t="s">
+        <v>297</v>
+      </c>
+      <c r="P6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="13:16">
+      <c r="O7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="13:16">
+      <c r="O8" t="s">
+        <v>299</v>
+      </c>
+      <c r="P8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="13:16">
+      <c r="O9" t="s">
+        <v>300</v>
+      </c>
+      <c r="P9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="13:16">
+      <c r="O10" t="s">
+        <v>301</v>
+      </c>
+      <c r="P10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="13:16">
+      <c r="O11" t="s">
+        <v>302</v>
+      </c>
+      <c r="P11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="13:16">
+      <c r="O12" t="s">
+        <v>303</v>
+      </c>
+      <c r="P12" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="13:16">
+      <c r="O13" t="s">
+        <v>304</v>
+      </c>
+      <c r="P13" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="11:14">
-      <c r="K2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M2" t="s">
-        <v>289</v>
-      </c>
-      <c r="N2" t="s">
+    <row r="14" spans="13:16">
+      <c r="O14" t="s">
+        <v>305</v>
+      </c>
+      <c r="P14" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="11:14">
-      <c r="M3" t="s">
-        <v>290</v>
-      </c>
-      <c r="N3" t="s">
+    <row r="15" spans="13:16">
+      <c r="O15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="13:16">
+      <c r="O16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15">
+      <c r="O17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="15:15">
+      <c r="O18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="15:15">
+      <c r="O19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="15:15">
+      <c r="O20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="15:15">
+      <c r="O21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="15:15">
+      <c r="O22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="15:15">
+      <c r="O23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="15:15">
+      <c r="O24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="15:15">
+      <c r="O25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="15:15">
+      <c r="O26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="15:15">
+      <c r="O27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="15:15">
+      <c r="O28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="15:15">
+      <c r="O29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="15:15">
+      <c r="O30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="15:15">
+      <c r="O31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="15:15">
+      <c r="O32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="15:15">
+      <c r="O33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="15:15">
+      <c r="O34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="15:15">
+      <c r="O35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="15:15">
+      <c r="O36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="15:15">
+      <c r="O37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="15:15">
+      <c r="O38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="15:15">
+      <c r="O39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="15:15">
+      <c r="O40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="15:15">
+      <c r="O41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="15:15">
+      <c r="O42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="15:15">
+      <c r="O43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="15:15">
+      <c r="O44" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="15:15">
+      <c r="O45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="15:15">
+      <c r="O46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="15:15">
+      <c r="O47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="15:15">
+      <c r="O48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52" spans="15:15">
+      <c r="O52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="15:15">
+      <c r="O53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="15:15">
+      <c r="O54" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="15:15">
+      <c r="O55" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="15:15">
+      <c r="O56" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="15:15">
+      <c r="O57" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="15:15">
+      <c r="O58" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="15:15">
+      <c r="O59" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="15:15">
+      <c r="O60" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="15:15">
+      <c r="O61" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="15:15">
+      <c r="O62" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="15:15">
+      <c r="O63" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="15:15">
+      <c r="O64" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="65" spans="15:15">
+      <c r="O65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="15:15">
+      <c r="O66" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="15:15">
+      <c r="O67" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" spans="15:15">
+      <c r="O68" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="69" spans="15:15">
+      <c r="O69" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70" spans="15:15">
+      <c r="O70" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="71" spans="15:15">
+      <c r="O71" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="15:15">
+      <c r="O72" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="15:15">
+      <c r="O73" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="15:15">
+      <c r="O74" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="15:15">
+      <c r="O75" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="15:15">
+      <c r="O76" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="15:15">
+      <c r="O77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="15:15">
+      <c r="O78" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="79" spans="15:15">
+      <c r="O79" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="15:15">
+      <c r="O80" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="15:15">
+      <c r="O81" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="82" spans="15:15">
+      <c r="O82" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" spans="15:15">
+      <c r="O83" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="15:15">
+      <c r="O84" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="85" spans="15:15">
+      <c r="O85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="86" spans="15:15">
+      <c r="O86" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="87" spans="15:15">
+      <c r="O87" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="88" spans="15:15">
+      <c r="O88" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="89" spans="15:15">
+      <c r="O89" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90" spans="15:15">
+      <c r="O90" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="91" spans="15:15">
+      <c r="O91" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="92" spans="15:15">
+      <c r="O92" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="15:15">
+      <c r="O93" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="15:15">
+      <c r="O94" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="95" spans="15:15">
+      <c r="O95" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="15:15">
+      <c r="O96" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="97" spans="15:15">
+      <c r="O97" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="98" spans="15:15">
+      <c r="O98" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="99" spans="15:15">
+      <c r="O99" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="100" spans="15:15">
+      <c r="O100" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="15:15">
+      <c r="O101" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" spans="15:15">
+      <c r="O102" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="103" spans="15:15">
+      <c r="O103" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="104" spans="15:15">
+      <c r="O104" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="105" spans="15:15">
+      <c r="O105" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="106" spans="15:15">
+      <c r="O106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="107" spans="15:15">
+      <c r="O107" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="108" spans="15:15">
+      <c r="O108" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="109" spans="15:15">
+      <c r="O109" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="15:15">
+      <c r="O110" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="111" spans="15:15">
+      <c r="O111" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="112" spans="15:15">
+      <c r="O112" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="113" spans="15:15">
+      <c r="O113" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="114" spans="15:15">
+      <c r="O114" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="15:15">
+      <c r="O115" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="116" spans="15:15">
+      <c r="O116" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="117" spans="15:15">
+      <c r="O117" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="118" spans="15:15">
+      <c r="O118" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="119" spans="15:15">
+      <c r="O119" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="120" spans="15:15">
+      <c r="O120" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="121" spans="15:15">
+      <c r="O121" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="15:15">
+      <c r="O122" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="123" spans="15:15">
+      <c r="O123" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="124" spans="15:15">
+      <c r="O124" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="125" spans="15:15">
+      <c r="O125" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="126" spans="15:15">
+      <c r="O126" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="127" spans="15:15">
+      <c r="O127" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="128" spans="15:15">
+      <c r="O128" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="129" spans="15:15">
+      <c r="O129" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="130" spans="15:15">
+      <c r="O130" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="131" spans="15:15">
+      <c r="O131" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="132" spans="15:15">
+      <c r="O132" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="133" spans="15:15">
+      <c r="O133" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="134" spans="15:15">
+      <c r="O134" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="135" spans="15:15">
+      <c r="O135" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="136" spans="15:15">
+      <c r="O136" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="137" spans="15:15">
+      <c r="O137" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="138" spans="15:15">
+      <c r="O138" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="139" spans="15:15">
+      <c r="O139" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="140" spans="15:15">
+      <c r="O140" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="141" spans="15:15">
+      <c r="O141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="142" spans="15:15">
+      <c r="O142" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="143" spans="15:15">
+      <c r="O143" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="144" spans="15:15">
+      <c r="O144" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="145" spans="15:15">
+      <c r="O145" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="146" spans="15:15">
+      <c r="O146" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="147" spans="15:15">
+      <c r="O147" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="148" spans="15:15">
+      <c r="O148" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="149" spans="15:15">
+      <c r="O149" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="150" spans="15:15">
+      <c r="O150" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="151" spans="15:15">
+      <c r="O151" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="152" spans="15:15">
+      <c r="O152" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="153" spans="15:15">
+      <c r="O153" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="154" spans="15:15">
+      <c r="O154" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="155" spans="15:15">
+      <c r="O155" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="156" spans="15:15">
+      <c r="O156" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="157" spans="15:15">
+      <c r="O157" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="158" spans="15:15">
+      <c r="O158" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="159" spans="15:15">
+      <c r="O159" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="160" spans="15:15">
+      <c r="O160" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="161" spans="15:15">
+      <c r="O161" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="162" spans="15:15">
+      <c r="O162" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="163" spans="15:15">
+      <c r="O163" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="164" spans="15:15">
+      <c r="O164" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="165" spans="15:15">
+      <c r="O165" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="166" spans="15:15">
+      <c r="O166" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="167" spans="15:15">
+      <c r="O167" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="168" spans="15:15">
+      <c r="O168" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="169" spans="15:15">
+      <c r="O169" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="170" spans="15:15">
+      <c r="O170" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="171" spans="15:15">
+      <c r="O171" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="172" spans="15:15">
+      <c r="O172" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="173" spans="15:15">
+      <c r="O173" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174" spans="15:15">
+      <c r="O174" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="175" spans="15:15">
+      <c r="O175" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="176" spans="15:15">
+      <c r="O176" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="177" spans="15:15">
+      <c r="O177" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="178" spans="15:15">
+      <c r="O178" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="179" spans="15:15">
+      <c r="O179" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="180" spans="15:15">
+      <c r="O180" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="181" spans="15:15">
+      <c r="O181" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="182" spans="15:15">
+      <c r="O182" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="183" spans="15:15">
+      <c r="O183" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="184" spans="15:15">
+      <c r="O184" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="185" spans="15:15">
+      <c r="O185" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="186" spans="15:15">
+      <c r="O186" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="187" spans="15:15">
+      <c r="O187" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="188" spans="15:15">
+      <c r="O188" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="189" spans="15:15">
+      <c r="O189" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="190" spans="15:15">
+      <c r="O190" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="191" spans="15:15">
+      <c r="O191" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="192" spans="15:15">
+      <c r="O192" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="193" spans="15:15">
+      <c r="O193" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="194" spans="15:15">
+      <c r="O194" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="195" spans="15:15">
+      <c r="O195" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="196" spans="15:15">
+      <c r="O196" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="197" spans="15:15">
+      <c r="O197" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="198" spans="15:15">
+      <c r="O198" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="199" spans="15:15">
+      <c r="O199" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="200" spans="15:15">
+      <c r="O200" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="201" spans="15:15">
+      <c r="O201" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="202" spans="15:15">
+      <c r="O202" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="203" spans="15:15">
+      <c r="O203" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="204" spans="15:15">
+      <c r="O204" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="205" spans="15:15">
+      <c r="O205" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="206" spans="15:15">
+      <c r="O206" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="207" spans="15:15">
+      <c r="O207" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="208" spans="15:15">
+      <c r="O208" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="209" spans="15:15">
+      <c r="O209" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="210" spans="15:15">
+      <c r="O210" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="211" spans="15:15">
+      <c r="O211" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="212" spans="15:15">
+      <c r="O212" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="213" spans="15:15">
+      <c r="O213" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="214" spans="15:15">
+      <c r="O214" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="215" spans="15:15">
+      <c r="O215" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="216" spans="15:15">
+      <c r="O216" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="217" spans="15:15">
+      <c r="O217" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="218" spans="15:15">
+      <c r="O218" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="219" spans="15:15">
+      <c r="O219" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="220" spans="15:15">
+      <c r="O220" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="221" spans="15:15">
+      <c r="O221" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="222" spans="15:15">
+      <c r="O222" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="223" spans="15:15">
+      <c r="O223" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="224" spans="15:15">
+      <c r="O224" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="225" spans="15:15">
+      <c r="O225" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="226" spans="15:15">
+      <c r="O226" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="227" spans="15:15">
+      <c r="O227" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="228" spans="15:15">
+      <c r="O228" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="229" spans="15:15">
+      <c r="O229" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="230" spans="15:15">
+      <c r="O230" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="231" spans="15:15">
+      <c r="O231" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="232" spans="15:15">
+      <c r="O232" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="233" spans="15:15">
+      <c r="O233" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="234" spans="15:15">
+      <c r="O234" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="235" spans="15:15">
+      <c r="O235" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="236" spans="15:15">
+      <c r="O236" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="237" spans="15:15">
+      <c r="O237" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="238" spans="15:15">
+      <c r="O238" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="239" spans="15:15">
+      <c r="O239" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="240" spans="15:15">
+      <c r="O240" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="241" spans="15:15">
+      <c r="O241" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="242" spans="15:15">
+      <c r="O242" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="243" spans="15:15">
+      <c r="O243" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="244" spans="15:15">
+      <c r="O244" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="245" spans="15:15">
+      <c r="O245" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="246" spans="15:15">
+      <c r="O246" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="247" spans="15:15">
+      <c r="O247" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="248" spans="15:15">
+      <c r="O248" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="249" spans="15:15">
+      <c r="O249" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="250" spans="15:15">
+      <c r="O250" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="251" spans="15:15">
+      <c r="O251" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="252" spans="15:15">
+      <c r="O252" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="253" spans="15:15">
+      <c r="O253" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="254" spans="15:15">
+      <c r="O254" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="255" spans="15:15">
+      <c r="O255" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="256" spans="15:15">
+      <c r="O256" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="257" spans="15:15">
+      <c r="O257" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="258" spans="15:15">
+      <c r="O258" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="259" spans="15:15">
+      <c r="O259" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="260" spans="15:15">
+      <c r="O260" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="261" spans="15:15">
+      <c r="O261" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="262" spans="15:15">
+      <c r="O262" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="263" spans="15:15">
+      <c r="O263" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="264" spans="15:15">
+      <c r="O264" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="265" spans="15:15">
+      <c r="O265" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="266" spans="15:15">
+      <c r="O266" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="267" spans="15:15">
+      <c r="O267" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="268" spans="15:15">
+      <c r="O268" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="269" spans="15:15">
+      <c r="O269" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="270" spans="15:15">
+      <c r="O270" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="271" spans="15:15">
+      <c r="O271" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="272" spans="15:15">
+      <c r="O272" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="273" spans="15:15">
+      <c r="O273" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="274" spans="15:15">
+      <c r="O274" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="11:14">
-      <c r="M4" t="s">
-        <v>291</v>
-      </c>
-      <c r="N4" t="s">
+    <row r="275" spans="15:15">
+      <c r="O275" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="5" spans="11:14">
-      <c r="M5" t="s">
-        <v>292</v>
-      </c>
-      <c r="N5" t="s">
+    <row r="276" spans="15:15">
+      <c r="O276" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="11:14">
-      <c r="M6" t="s">
-        <v>293</v>
-      </c>
-      <c r="N6" t="s">
+    <row r="277" spans="15:15">
+      <c r="O277" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="7" spans="11:14">
-      <c r="M7" t="s">
-        <v>294</v>
-      </c>
-      <c r="N7" t="s">
+    <row r="278" spans="15:15">
+      <c r="O278" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="8" spans="11:14">
-      <c r="M8" t="s">
-        <v>295</v>
-      </c>
-      <c r="N8" t="s">
+    <row r="279" spans="15:15">
+      <c r="O279" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="11:14">
-      <c r="M9" t="s">
-        <v>296</v>
-      </c>
-      <c r="N9" t="s">
+    <row r="280" spans="15:15">
+      <c r="O280" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="10" spans="11:14">
-      <c r="M10" t="s">
-        <v>297</v>
-      </c>
-      <c r="N10" t="s">
+    <row r="281" spans="15:15">
+      <c r="O281" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="11" spans="11:14">
-      <c r="M11" t="s">
-        <v>298</v>
-      </c>
-      <c r="N11" t="s">
+    <row r="282" spans="15:15">
+      <c r="O282" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="11:14">
-      <c r="M12" t="s">
-        <v>299</v>
-      </c>
-      <c r="N12" t="s">
+    <row r="283" spans="15:15">
+      <c r="O283" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="13" spans="11:14">
-      <c r="M13" t="s">
-        <v>300</v>
-      </c>
-      <c r="N13" t="s">
+    <row r="284" spans="15:15">
+      <c r="O284" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="11:14">
-      <c r="M14" t="s">
-        <v>301</v>
-      </c>
-      <c r="N14" t="s">
+    <row r="285" spans="15:15">
+      <c r="O285" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="11:14">
-      <c r="M15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="11:14">
-      <c r="M16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="13:13">
-      <c r="M17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="13:13">
-      <c r="M18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="13:13">
-      <c r="M19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="13:13">
-      <c r="M20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="13:13">
-      <c r="M21" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="13:13">
-      <c r="M22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="13:13">
-      <c r="M23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="13:13">
-      <c r="M24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="13:13">
-      <c r="M25" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="13:13">
-      <c r="M26" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="13:13">
-      <c r="M27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="13:13">
-      <c r="M28" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="29" spans="13:13">
-      <c r="M29" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="30" spans="13:13">
-      <c r="M30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="13:13">
-      <c r="M31" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="13:13">
-      <c r="M32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="13:13">
-      <c r="M33" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" spans="13:13">
-      <c r="M34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="13:13">
-      <c r="M35" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="36" spans="13:13">
-      <c r="M36" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="13:13">
-      <c r="M37" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="38" spans="13:13">
-      <c r="M38" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="39" spans="13:13">
-      <c r="M39" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="40" spans="13:13">
-      <c r="M40" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="41" spans="13:13">
-      <c r="M41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="42" spans="13:13">
-      <c r="M42" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="43" spans="13:13">
-      <c r="M43" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="44" spans="13:13">
-      <c r="M44" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="45" spans="13:13">
-      <c r="M45" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="13:13">
-      <c r="M46" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="13:13">
-      <c r="M47" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48" spans="13:13">
-      <c r="M48" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="49" spans="13:13">
-      <c r="M49" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="50" spans="13:13">
-      <c r="M50" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="13:13">
-      <c r="M51" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="13:13">
-      <c r="M52" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="53" spans="13:13">
-      <c r="M53" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="54" spans="13:13">
-      <c r="M54" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="55" spans="13:13">
-      <c r="M55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="56" spans="13:13">
-      <c r="M56" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="13:13">
-      <c r="M57" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="58" spans="13:13">
-      <c r="M58" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="59" spans="13:13">
-      <c r="M59" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="60" spans="13:13">
-      <c r="M60" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="61" spans="13:13">
-      <c r="M61" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="13:13">
-      <c r="M62" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="63" spans="13:13">
-      <c r="M63" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="64" spans="13:13">
-      <c r="M64" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="13:13">
-      <c r="M65" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="66" spans="13:13">
-      <c r="M66" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="67" spans="13:13">
-      <c r="M67" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="68" spans="13:13">
-      <c r="M68" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="69" spans="13:13">
-      <c r="M69" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="70" spans="13:13">
-      <c r="M70" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="71" spans="13:13">
-      <c r="M71" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="72" spans="13:13">
-      <c r="M72" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="73" spans="13:13">
-      <c r="M73" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="74" spans="13:13">
-      <c r="M74" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="75" spans="13:13">
-      <c r="M75" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="76" spans="13:13">
-      <c r="M76" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="77" spans="13:13">
-      <c r="M77" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="78" spans="13:13">
-      <c r="M78" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="79" spans="13:13">
-      <c r="M79" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="80" spans="13:13">
-      <c r="M80" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="81" spans="13:13">
-      <c r="M81" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="82" spans="13:13">
-      <c r="M82" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="83" spans="13:13">
-      <c r="M83" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="13:13">
-      <c r="M84" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="85" spans="13:13">
-      <c r="M85" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="86" spans="13:13">
-      <c r="M86" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="87" spans="13:13">
-      <c r="M87" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="88" spans="13:13">
-      <c r="M88" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="89" spans="13:13">
-      <c r="M89" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="90" spans="13:13">
-      <c r="M90" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="91" spans="13:13">
-      <c r="M91" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="92" spans="13:13">
-      <c r="M92" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="93" spans="13:13">
-      <c r="M93" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="94" spans="13:13">
-      <c r="M94" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="95" spans="13:13">
-      <c r="M95" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="96" spans="13:13">
-      <c r="M96" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="97" spans="13:13">
-      <c r="M97" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="98" spans="13:13">
-      <c r="M98" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="99" spans="13:13">
-      <c r="M99" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="100" spans="13:13">
-      <c r="M100" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="101" spans="13:13">
-      <c r="M101" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="102" spans="13:13">
-      <c r="M102" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="103" spans="13:13">
-      <c r="M103" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="104" spans="13:13">
-      <c r="M104" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="105" spans="13:13">
-      <c r="M105" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="106" spans="13:13">
-      <c r="M106" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="107" spans="13:13">
-      <c r="M107" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="108" spans="13:13">
-      <c r="M108" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="109" spans="13:13">
-      <c r="M109" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="110" spans="13:13">
-      <c r="M110" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="111" spans="13:13">
-      <c r="M111" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="112" spans="13:13">
-      <c r="M112" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="113" spans="13:13">
-      <c r="M113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="114" spans="13:13">
-      <c r="M114" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="115" spans="13:13">
-      <c r="M115" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="116" spans="13:13">
-      <c r="M116" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="117" spans="13:13">
-      <c r="M117" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="118" spans="13:13">
-      <c r="M118" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="119" spans="13:13">
-      <c r="M119" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="120" spans="13:13">
-      <c r="M120" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="121" spans="13:13">
-      <c r="M121" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="122" spans="13:13">
-      <c r="M122" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="123" spans="13:13">
-      <c r="M123" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="124" spans="13:13">
-      <c r="M124" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="125" spans="13:13">
-      <c r="M125" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="126" spans="13:13">
-      <c r="M126" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="127" spans="13:13">
-      <c r="M127" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="128" spans="13:13">
-      <c r="M128" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="129" spans="13:13">
-      <c r="M129" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="130" spans="13:13">
-      <c r="M130" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="131" spans="13:13">
-      <c r="M131" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="132" spans="13:13">
-      <c r="M132" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="133" spans="13:13">
-      <c r="M133" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="134" spans="13:13">
-      <c r="M134" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="135" spans="13:13">
-      <c r="M135" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="136" spans="13:13">
-      <c r="M136" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="137" spans="13:13">
-      <c r="M137" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="138" spans="13:13">
-      <c r="M138" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="139" spans="13:13">
-      <c r="M139" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="140" spans="13:13">
-      <c r="M140" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="141" spans="13:13">
-      <c r="M141" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="142" spans="13:13">
-      <c r="M142" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="143" spans="13:13">
-      <c r="M143" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="144" spans="13:13">
-      <c r="M144" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="145" spans="13:13">
-      <c r="M145" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="146" spans="13:13">
-      <c r="M146" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="147" spans="13:13">
-      <c r="M147" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="148" spans="13:13">
-      <c r="M148" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="149" spans="13:13">
-      <c r="M149" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="150" spans="13:13">
-      <c r="M150" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="151" spans="13:13">
-      <c r="M151" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="152" spans="13:13">
-      <c r="M152" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="153" spans="13:13">
-      <c r="M153" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="154" spans="13:13">
-      <c r="M154" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="155" spans="13:13">
-      <c r="M155" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="156" spans="13:13">
-      <c r="M156" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="157" spans="13:13">
-      <c r="M157" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="158" spans="13:13">
-      <c r="M158" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="159" spans="13:13">
-      <c r="M159" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="160" spans="13:13">
-      <c r="M160" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="161" spans="13:13">
-      <c r="M161" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="162" spans="13:13">
-      <c r="M162" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="163" spans="13:13">
-      <c r="M163" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="164" spans="13:13">
-      <c r="M164" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="165" spans="13:13">
-      <c r="M165" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="166" spans="13:13">
-      <c r="M166" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="167" spans="13:13">
-      <c r="M167" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="168" spans="13:13">
-      <c r="M168" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="169" spans="13:13">
-      <c r="M169" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="170" spans="13:13">
-      <c r="M170" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="171" spans="13:13">
-      <c r="M171" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="172" spans="13:13">
-      <c r="M172" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="173" spans="13:13">
-      <c r="M173" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="174" spans="13:13">
-      <c r="M174" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="175" spans="13:13">
-      <c r="M175" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="176" spans="13:13">
-      <c r="M176" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="177" spans="13:13">
-      <c r="M177" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="178" spans="13:13">
-      <c r="M178" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="179" spans="13:13">
-      <c r="M179" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="180" spans="13:13">
-      <c r="M180" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="181" spans="13:13">
-      <c r="M181" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="182" spans="13:13">
-      <c r="M182" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="183" spans="13:13">
-      <c r="M183" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="184" spans="13:13">
-      <c r="M184" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="185" spans="13:13">
-      <c r="M185" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="186" spans="13:13">
-      <c r="M186" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="187" spans="13:13">
-      <c r="M187" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="188" spans="13:13">
-      <c r="M188" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="189" spans="13:13">
-      <c r="M189" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="190" spans="13:13">
-      <c r="M190" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="191" spans="13:13">
-      <c r="M191" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="192" spans="13:13">
-      <c r="M192" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="193" spans="13:13">
-      <c r="M193" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="194" spans="13:13">
-      <c r="M194" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="195" spans="13:13">
-      <c r="M195" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="196" spans="13:13">
-      <c r="M196" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="197" spans="13:13">
-      <c r="M197" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="198" spans="13:13">
-      <c r="M198" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="199" spans="13:13">
-      <c r="M199" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="200" spans="13:13">
-      <c r="M200" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="201" spans="13:13">
-      <c r="M201" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="202" spans="13:13">
-      <c r="M202" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="203" spans="13:13">
-      <c r="M203" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="204" spans="13:13">
-      <c r="M204" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="205" spans="13:13">
-      <c r="M205" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="206" spans="13:13">
-      <c r="M206" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="207" spans="13:13">
-      <c r="M207" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="208" spans="13:13">
-      <c r="M208" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="209" spans="13:13">
-      <c r="M209" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="210" spans="13:13">
-      <c r="M210" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="211" spans="13:13">
-      <c r="M211" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="212" spans="13:13">
-      <c r="M212" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="213" spans="13:13">
-      <c r="M213" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="214" spans="13:13">
-      <c r="M214" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="215" spans="13:13">
-      <c r="M215" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="216" spans="13:13">
-      <c r="M216" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="217" spans="13:13">
-      <c r="M217" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="218" spans="13:13">
-      <c r="M218" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="219" spans="13:13">
-      <c r="M219" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="220" spans="13:13">
-      <c r="M220" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="221" spans="13:13">
-      <c r="M221" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="222" spans="13:13">
-      <c r="M222" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="223" spans="13:13">
-      <c r="M223" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="224" spans="13:13">
-      <c r="M224" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="225" spans="13:13">
-      <c r="M225" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="226" spans="13:13">
-      <c r="M226" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="227" spans="13:13">
-      <c r="M227" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="228" spans="13:13">
-      <c r="M228" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="229" spans="13:13">
-      <c r="M229" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="230" spans="13:13">
-      <c r="M230" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="231" spans="13:13">
-      <c r="M231" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="232" spans="13:13">
-      <c r="M232" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="233" spans="13:13">
-      <c r="M233" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="234" spans="13:13">
-      <c r="M234" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="235" spans="13:13">
-      <c r="M235" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="236" spans="13:13">
-      <c r="M236" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="237" spans="13:13">
-      <c r="M237" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="238" spans="13:13">
-      <c r="M238" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="239" spans="13:13">
-      <c r="M239" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="240" spans="13:13">
-      <c r="M240" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="241" spans="13:13">
-      <c r="M241" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="242" spans="13:13">
-      <c r="M242" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="243" spans="13:13">
-      <c r="M243" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="244" spans="13:13">
-      <c r="M244" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="245" spans="13:13">
-      <c r="M245" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="246" spans="13:13">
-      <c r="M246" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="247" spans="13:13">
-      <c r="M247" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="248" spans="13:13">
-      <c r="M248" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="249" spans="13:13">
-      <c r="M249" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="250" spans="13:13">
-      <c r="M250" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="251" spans="13:13">
-      <c r="M251" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="252" spans="13:13">
-      <c r="M252" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="253" spans="13:13">
-      <c r="M253" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="254" spans="13:13">
-      <c r="M254" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="255" spans="13:13">
-      <c r="M255" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="256" spans="13:13">
-      <c r="M256" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="257" spans="13:13">
-      <c r="M257" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="258" spans="13:13">
-      <c r="M258" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="259" spans="13:13">
-      <c r="M259" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="260" spans="13:13">
-      <c r="M260" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="261" spans="13:13">
-      <c r="M261" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="262" spans="13:13">
-      <c r="M262" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="263" spans="13:13">
-      <c r="M263" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="264" spans="13:13">
-      <c r="M264" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="265" spans="13:13">
-      <c r="M265" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="266" spans="13:13">
-      <c r="M266" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="267" spans="13:13">
-      <c r="M267" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="268" spans="13:13">
-      <c r="M268" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="269" spans="13:13">
-      <c r="M269" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="270" spans="13:13">
-      <c r="M270" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="271" spans="13:13">
-      <c r="M271" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="272" spans="13:13">
-      <c r="M272" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="273" spans="13:13">
-      <c r="M273" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="274" spans="13:13">
-      <c r="M274" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="275" spans="13:13">
-      <c r="M275" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="276" spans="13:13">
-      <c r="M276" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="277" spans="13:13">
-      <c r="M277" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="278" spans="13:13">
-      <c r="M278" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="279" spans="13:13">
-      <c r="M279" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="280" spans="13:13">
-      <c r="M280" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="281" spans="13:13">
-      <c r="M281" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="282" spans="13:13">
-      <c r="M282" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="283" spans="13:13">
-      <c r="M283" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="284" spans="13:13">
-      <c r="M284" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="285" spans="13:13">
-      <c r="M285" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="286" spans="13:13">
-      <c r="M286" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="287" spans="13:13">
-      <c r="M287" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="288" spans="13:13">
-      <c r="M288" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="289" spans="13:13">
-      <c r="M289" t="s">
-        <v>576</v>
+    <row r="286" spans="15:15">
+      <c r="O286" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="287" spans="15:15">
+      <c r="O287" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="288" spans="15:15">
+      <c r="O288" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="289" spans="15:15">
+      <c r="O289" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000028/metadata_template_ERC000028.xlsx
+++ b/templates/ERC000028/metadata_template_ERC000028.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalsample">'cv_sample'!$M$1:$M$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$294</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$P$1:$P$14</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="612">
   <si>
     <t>alias</t>
   </si>
@@ -1124,9 +1124,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1145,6 +1142,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1346,6 +1346,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1355,9 +1358,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1397,7 +1397,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1466,6 +1466,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1541,6 +1544,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1562,6 +1568,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1607,6 +1616,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1619,6 +1631,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1628,9 +1643,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1655,6 +1667,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1715,10 +1730,10 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
   </si>
   <si>
     <t>Wallis and Futuna</t>
@@ -3440,40 +3455,40 @@
         <v>290</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="150" customHeight="1">
@@ -3520,40 +3535,40 @@
         <v>291</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -3574,7 +3589,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="M1:P289"/>
+  <dimension ref="M1:P294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3588,7 +3603,7 @@
         <v>292</v>
       </c>
       <c r="P1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="13:16">
@@ -3599,7 +3614,7 @@
         <v>293</v>
       </c>
       <c r="P2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="13:16">
@@ -3607,7 +3622,7 @@
         <v>294</v>
       </c>
       <c r="P3" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="13:16">
@@ -3615,7 +3630,7 @@
         <v>295</v>
       </c>
       <c r="P4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="13:16">
@@ -3623,7 +3638,7 @@
         <v>296</v>
       </c>
       <c r="P5" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="13:16">
@@ -3631,7 +3646,7 @@
         <v>297</v>
       </c>
       <c r="P6" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="13:16">
@@ -3639,7 +3654,7 @@
         <v>298</v>
       </c>
       <c r="P7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="13:16">
@@ -3647,7 +3662,7 @@
         <v>299</v>
       </c>
       <c r="P8" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="13:16">
@@ -3655,7 +3670,7 @@
         <v>300</v>
       </c>
       <c r="P9" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="13:16">
@@ -3663,7 +3678,7 @@
         <v>301</v>
       </c>
       <c r="P10" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="13:16">
@@ -3671,7 +3686,7 @@
         <v>302</v>
       </c>
       <c r="P11" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="13:16">
@@ -3679,7 +3694,7 @@
         <v>303</v>
       </c>
       <c r="P12" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="13:16">
@@ -3687,7 +3702,7 @@
         <v>304</v>
       </c>
       <c r="P13" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="13:16">
@@ -3695,7 +3710,7 @@
         <v>305</v>
       </c>
       <c r="P14" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="13:16">
@@ -5071,6 +5086,31 @@
     <row r="289" spans="15:15">
       <c r="O289" t="s">
         <v>580</v>
+      </c>
+    </row>
+    <row r="290" spans="15:15">
+      <c r="O290" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="291" spans="15:15">
+      <c r="O291" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="292" spans="15:15">
+      <c r="O292" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="293" spans="15:15">
+      <c r="O293" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="294" spans="15:15">
+      <c r="O294" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
